--- a/Doc_SCRUM/LesSprints.xlsx
+++ b/Doc_SCRUM/LesSprints.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t xml:space="preserve">Story Name </t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Sean</t>
-  </si>
-  <si>
-    <t>infinite</t>
   </si>
   <si>
     <t>To Do</t>
@@ -121,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,16 +141,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -319,17 +329,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -351,15 +408,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,7 +732,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,313 +743,651 @@
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="31">
         <v>42627</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="31">
         <v>42634</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="31">
         <v>42641</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="31">
         <v>42648</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="31">
         <v>42655</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="31">
         <v>42662</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="31">
         <v>42659</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="31">
         <v>42676</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="31">
         <v>42683</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="31">
         <v>42690</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="31">
         <v>42697</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="31">
         <v>42704</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="27">
         <v>1000</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="27">
         <v>6</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="27">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="27">
         <v>0</v>
       </c>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="24">
         <v>100</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="24">
+        <v>4</v>
+      </c>
+      <c r="G3" s="24">
+        <v>4</v>
+      </c>
+      <c r="H3" s="24">
+        <v>2</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29">
         <v>6</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24">
+        <v>1</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="27">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="27">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G6" s="27">
+        <v>3</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="8"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="23">
+        <v>42627</v>
+      </c>
+      <c r="D17" s="23">
+        <v>42634</v>
+      </c>
+      <c r="E17" s="23">
+        <v>42641</v>
+      </c>
+      <c r="F17" s="23">
+        <v>42648</v>
+      </c>
+      <c r="G17" s="23">
+        <v>42655</v>
+      </c>
+      <c r="H17" s="23">
+        <v>42662</v>
+      </c>
+      <c r="I17" s="23">
+        <v>42659</v>
+      </c>
+      <c r="J17" s="23">
+        <v>42676</v>
+      </c>
+      <c r="K17" s="23">
+        <v>42683</v>
+      </c>
+      <c r="L17" s="23">
+        <v>42690</v>
+      </c>
+      <c r="M17" s="23">
+        <v>42697</v>
+      </c>
+      <c r="N17" s="23">
+        <v>42704</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <f>SUM(F2:F15)</f>
+        <v>20</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C17" s="3">
-        <v>42627</v>
-      </c>
-      <c r="D17" s="3">
-        <v>42634</v>
-      </c>
-      <c r="E17" s="3">
-        <v>42641</v>
-      </c>
-      <c r="F17" s="3">
-        <v>42648</v>
-      </c>
-      <c r="G17" s="3">
-        <v>42655</v>
-      </c>
-      <c r="H17" s="3">
-        <v>42662</v>
-      </c>
-      <c r="I17" s="3">
-        <v>42659</v>
-      </c>
-      <c r="J17" s="3">
-        <v>42676</v>
-      </c>
-      <c r="K17" s="3">
-        <v>42683</v>
-      </c>
-      <c r="L17" s="3">
-        <v>42690</v>
-      </c>
-      <c r="M17" s="3">
-        <v>42697</v>
-      </c>
-      <c r="N17" s="3">
-        <v>42704</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -997,7 +1403,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G4" sqref="G4:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,191 +1421,191 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="17">
+        <v>42627</v>
+      </c>
+      <c r="J2" s="18">
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="8">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7">
+        <v>100</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="13">
+        <v>3</v>
+      </c>
+      <c r="I8" s="10">
+        <v>3</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="20">
-        <v>42627</v>
-      </c>
-      <c r="J2" s="21">
-        <v>42634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1000</v>
-      </c>
-      <c r="G4" s="11">
-        <v>6</v>
-      </c>
-      <c r="I4" s="6">
-        <v>3</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="10">
-        <v>100</v>
-      </c>
-      <c r="G5" s="11">
-        <v>4</v>
-      </c>
-      <c r="I5" s="9">
-        <v>2</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11">
-        <v>6</v>
-      </c>
-      <c r="I6" s="9">
-        <v>2</v>
-      </c>
-      <c r="J6" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13">
-        <v>5</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="15">
-        <v>1000</v>
-      </c>
-      <c r="G8" s="16">
-        <v>3</v>
-      </c>
-      <c r="I8" s="13">
-        <v>3</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>30</v>
+      <c r="I9" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="17">
+      <c r="H10" s="14">
         <f>SUM(G4:G8)</f>
         <v>20</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="16">
         <f>SUM(I4:J8)</f>
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>2</v>
       </c>
     </row>

--- a/Doc_SCRUM/LesSprints.xlsx
+++ b/Doc_SCRUM/LesSprints.xlsx
@@ -5,19 +5,19 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="10815" windowHeight="12255" activeTab="1"/>
-    <workbookView xWindow="10785" yWindow="-15" windowWidth="14430" windowHeight="12255"/>
+    <workbookView xWindow="10785" yWindow="-15" windowWidth="14430" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tout" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="SprntsReview" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="49">
   <si>
     <t xml:space="preserve">Story Name </t>
   </si>
@@ -115,9 +115,6 @@
     <t>congé</t>
   </si>
   <si>
-    <t>Doc technique</t>
-  </si>
-  <si>
     <t>User Case</t>
   </si>
   <si>
@@ -137,6 +134,36 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 1 </t>
+  </si>
+  <si>
+    <t>Récapitulatif Sprints</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Problème</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Ordinateur(Ralenticement)</t>
+  </si>
+  <si>
+    <t>Réinitialisation de l'ordinateur</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
   </si>
 </sst>
 </file>
@@ -194,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -399,11 +426,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -467,6 +580,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,8 +895,8 @@
     <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +977,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="20">
         <v>1000</v>
@@ -928,7 +1050,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>12</v>
@@ -1033,7 +1155,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -1170,9 +1292,7 @@
       <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="B12" s="22"/>
       <c r="C12" s="22" t="s">
         <v>20</v>
       </c>
@@ -1199,7 +1319,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>20</v>
@@ -1229,7 +1349,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>20</v>
@@ -1257,7 +1377,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>20</v>
@@ -1285,7 +1405,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="51" t="s">
         <v>20</v>
@@ -1313,7 +1433,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="49" t="s">
         <v>20</v>
@@ -1594,7 +1714,9 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1664,7 +1786,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="29">
         <v>1000</v>
@@ -1799,9 +1921,6 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="49"/>
       <c r="H9" s="12" t="s">
         <v>25</v>
       </c>
@@ -1860,13 +1979,17 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
-      <c r="C14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="D14" s="45" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
+      <c r="G14" s="30">
+        <v>10</v>
+      </c>
       <c r="I14" s="36">
         <v>0</v>
       </c>
@@ -1888,12 +2011,14 @@
         <v>20</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7">
         <v>110</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="6">
+        <v>10</v>
+      </c>
       <c r="I15" s="4">
         <v>0</v>
       </c>
@@ -1920,7 +2045,9 @@
       <c r="F16" s="25">
         <v>100</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="30">
+        <v>10</v>
+      </c>
       <c r="I16" s="27">
         <v>0</v>
       </c>
@@ -1936,7 +2063,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>20</v>
@@ -1947,7 +2074,9 @@
       <c r="F17" s="5">
         <v>100</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="6">
+        <v>10</v>
+      </c>
       <c r="I17" s="4">
         <v>0</v>
       </c>
@@ -1986,7 +2115,7 @@
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H20" s="38">
         <f>SUM(G14:G18)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I20" s="39">
         <f>SUM(I14:K18)</f>
@@ -2001,13 +2130,130 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="56"/>
+      <c r="C4" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="55"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="56"/>
+      <c r="C10" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Doc_SCRUM/LesSprints.xlsx
+++ b/Doc_SCRUM/LesSprints.xlsx
@@ -4,8 +4,8 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10815" windowHeight="12255" activeTab="1"/>
-    <workbookView xWindow="10785" yWindow="-15" windowWidth="14430" windowHeight="12255" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="10815" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="10560" yWindow="15" windowWidth="10500" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Tout" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="49">
   <si>
     <t xml:space="preserve">Story Name </t>
   </si>
@@ -136,9 +136,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Doc</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sprint 1 </t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Ordinateur(visualStudio Plantait)</t>
   </si>
 </sst>
 </file>
@@ -221,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -453,26 +453,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -571,7 +551,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,14 +560,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,8 +875,8 @@
     <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1131,7 @@
       <c r="B7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1237,7 +1217,7 @@
       <c r="B10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="49" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="20"/>
@@ -1265,7 +1245,7 @@
       <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -1373,32 +1353,32 @@
       <c r="R14" s="22"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="52">
+      <c r="A15" s="51">
         <v>14</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
@@ -1407,7 +1387,7 @@
       <c r="B16" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="50" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="22"/>
@@ -1435,7 +1415,7 @@
       <c r="B17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="18"/>
@@ -1709,30 +1689,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
@@ -1764,8 +1742,8 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48">
+    <row r="3" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="47">
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
@@ -1774,8 +1752,9 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="60"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="27">
         <v>1</v>
       </c>
@@ -1804,14 +1783,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1833,15 +1812,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="27">
         <v>3</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>20</v>
+      <c r="D6" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>12</v>
@@ -1862,14 +1841,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -1891,7 +1870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="31">
         <v>5</v>
       </c>
@@ -1917,10 +1896,10 @@
         <v>31</v>
       </c>
       <c r="K8" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H9" s="12" t="s">
         <v>25</v>
       </c>
@@ -1928,22 +1907,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H10" s="38">
         <f>SUM(G4:G8)</f>
         <v>20</v>
       </c>
       <c r="I10" s="39">
         <f>SUM(I4:K8)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1969,7 +1948,7 @@
         <v>42655</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1977,15 +1956,19 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="27">
+        <v>15</v>
+      </c>
       <c r="C14" s="25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D14" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="F14" s="29"/>
       <c r="G14" s="30">
         <v>10</v>
@@ -1993,14 +1976,11 @@
       <c r="I14" s="36">
         <v>0</v>
       </c>
-      <c r="J14" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="37">
+      <c r="J14" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>6</v>
       </c>
@@ -2022,14 +2002,11 @@
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="J15" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <v>10</v>
       </c>
@@ -2046,19 +2023,16 @@
         <v>100</v>
       </c>
       <c r="G16" s="30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I16" s="27">
         <v>0</v>
       </c>
-      <c r="J16" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="30">
+      <c r="J16" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>12</v>
       </c>
@@ -2066,7 +2040,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>19</v>
@@ -2078,33 +2052,33 @@
         <v>10</v>
       </c>
       <c r="I17" s="4">
+        <v>2</v>
+      </c>
+      <c r="J17" s="6">
         <v>0</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="32"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="31">
+        <v>15</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>19</v>
+      </c>
       <c r="F18" s="34"/>
       <c r="G18" s="35"/>
-      <c r="I18" s="31">
+      <c r="I18" s="31"/>
+      <c r="J18" s="35">
         <v>0</v>
       </c>
-      <c r="J18" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H19" s="12" t="s">
         <v>25</v>
       </c>
@@ -2112,14 +2086,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H20" s="38">
         <f>SUM(G14:G18)</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I20" s="39">
-        <f>SUM(I14:K18)</f>
-        <v>0</v>
+        <f>SUM(I14:J18)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2133,125 +2107,123 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="56"/>
-      <c r="C4" s="59" t="s">
+      <c r="D4" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="C5" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="53"/>
+      <c r="C10" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F10" s="56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C12" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="56"/>
-      <c r="C10" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc_SCRUM/LesSprints.xlsx
+++ b/Doc_SCRUM/LesSprints.xlsx
@@ -4,8 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="10815" windowHeight="12195" activeTab="1"/>
-    <workbookView xWindow="10560" yWindow="15" windowWidth="10500" windowHeight="7995"/>
+    <workbookView xWindow="15195" yWindow="-15" windowWidth="9795" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Tout" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="53">
   <si>
     <t xml:space="preserve">Story Name </t>
   </si>
@@ -151,9 +150,6 @@
     <t>Solution</t>
   </si>
   <si>
-    <t>Ordinateur(Ralenticement)</t>
-  </si>
-  <si>
     <t>Réinitialisation de l'ordinateur</t>
   </si>
   <si>
@@ -164,6 +160,21 @@
   </si>
   <si>
     <t>Ordinateur(visualStudio Plantait)</t>
+  </si>
+  <si>
+    <t>Timer page pricipale (Joile)</t>
+  </si>
+  <si>
+    <t>absente</t>
+  </si>
+  <si>
+    <t>Gabor,Dilan</t>
+  </si>
+  <si>
+    <t>absent(gabor)</t>
+  </si>
+  <si>
+    <t>absent ( Dilan) 5</t>
   </si>
 </sst>
 </file>
@@ -221,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -492,11 +503,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -512,15 +536,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -568,7 +583,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,11 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,654 +934,660 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24">
+      <c r="G1" s="21">
         <v>42627</v>
       </c>
-      <c r="H1" s="24">
+      <c r="H1" s="21">
         <v>42634</v>
       </c>
-      <c r="I1" s="24">
+      <c r="I1" s="21">
         <v>42641</v>
       </c>
-      <c r="J1" s="24">
+      <c r="J1" s="21">
         <v>42648</v>
       </c>
-      <c r="K1" s="24">
+      <c r="K1" s="21">
         <v>42655</v>
       </c>
-      <c r="L1" s="24">
+      <c r="L1" s="21">
         <v>42662</v>
       </c>
-      <c r="M1" s="24">
+      <c r="M1" s="21">
         <v>42659</v>
       </c>
-      <c r="N1" s="24">
+      <c r="N1" s="21">
         <v>42676</v>
       </c>
-      <c r="O1" s="24">
+      <c r="O1" s="21">
         <v>42683</v>
       </c>
-      <c r="P1" s="24">
+      <c r="P1" s="21">
         <v>42690</v>
       </c>
-      <c r="Q1" s="24">
+      <c r="Q1" s="21">
         <v>42697</v>
       </c>
-      <c r="R1" s="24">
+      <c r="R1" s="21">
         <v>42704</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="17">
         <v>1000</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="17">
         <v>6</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="17">
         <v>4</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="20">
+      <c r="H2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="17">
         <v>0</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="15">
         <v>100</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="15">
         <v>4</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="15">
         <v>4</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="18">
+      <c r="H3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="15">
         <v>3</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19">
         <v>6</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="22">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="19">
         <v>2</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15">
         <v>1</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="17">
         <v>1000</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="17">
         <v>3</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="17">
         <v>3</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
+      <c r="H6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="45" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D14" s="65"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="48">
+        <v>14</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
-        <v>13</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="51">
-        <v>14</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>16</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="26">
+      <c r="C30" s="23">
         <v>42627</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="23">
         <v>42634</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="23">
         <v>42641</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="23">
         <v>42648</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="23">
         <v>42655</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="23">
         <v>42662</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="23">
         <v>42659</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J30" s="23">
         <v>42676</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="23">
         <v>42683</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="23">
         <v>42690</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M30" s="23">
         <v>42697</v>
       </c>
-      <c r="N30" s="26">
+      <c r="N30" s="23">
         <v>42704</v>
       </c>
       <c r="O30" s="5"/>
@@ -1548,7 +1597,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5">
@@ -1558,7 +1607,9 @@
       <c r="D31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5">
+        <v>35</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -1575,7 +1626,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="5"/>
@@ -1662,11 +1713,11 @@
       <c r="B36" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="69"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -1682,6 +1733,9 @@
       <c r="R36" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C36:E36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1689,24 +1743,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1732,18 +1786,18 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="38">
         <v>42627</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J2" s="39">
         <v>42634</v>
       </c>
-      <c r="K2" s="40">
+      <c r="K2" s="37">
         <v>42641</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
@@ -1752,34 +1806,34 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
-      <c r="L3" s="60"/>
+      <c r="L3" s="57"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="27">
+      <c r="B4" s="24">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="26">
         <v>1000</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="27">
         <v>6</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="33">
         <v>3</v>
       </c>
-      <c r="J4" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="37">
+      <c r="J4" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="34">
         <v>0</v>
       </c>
     </row>
@@ -1790,7 +1844,7 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="43" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1813,32 +1867,32 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="27">
+      <c r="B6" s="24">
         <v>3</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>900</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="27">
         <v>6</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="24">
         <v>0</v>
       </c>
-      <c r="J6" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="30">
-        <v>0</v>
+      <c r="J6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="27">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1848,7 +1902,7 @@
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="43" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -1871,31 +1925,31 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="31">
+      <c r="B8" s="28">
         <v>5</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="31">
         <v>1000</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="32">
         <v>3</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="28">
         <v>3</v>
       </c>
-      <c r="J8" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="35">
+      <c r="J8" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="32">
         <v>1</v>
       </c>
     </row>
@@ -1908,17 +1962,17 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="38">
+      <c r="H10" s="35">
         <f>SUM(G4:G8)</f>
         <v>20</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="36">
         <f>SUM(I4:K8)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
+      <c r="A11" s="44">
         <v>2</v>
       </c>
     </row>
@@ -1941,10 +1995,10 @@
       <c r="G12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="38">
         <v>42648</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="41">
         <v>42655</v>
       </c>
     </row>
@@ -1957,27 +2011,27 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="27">
+      <c r="B14" s="24">
         <v>15</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30">
+      <c r="F14" s="26"/>
+      <c r="G14" s="27">
         <v>10</v>
       </c>
-      <c r="I14" s="36">
-        <v>0</v>
-      </c>
-      <c r="J14" s="37">
-        <v>0</v>
+      <c r="I14" s="33">
+        <v>5</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1997,49 +2051,49 @@
         <v>110</v>
       </c>
       <c r="G15" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I15" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="27">
+      <c r="B16" s="24">
         <v>10</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="25">
+      <c r="E16" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="22">
         <v>100</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="27">
         <v>5</v>
       </c>
-      <c r="I16" s="27">
-        <v>0</v>
-      </c>
-      <c r="J16" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I16" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="43" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -2049,7 +2103,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I17" s="4">
         <v>2</v>
@@ -2058,27 +2112,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="61">
         <v>15</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="32" t="s">
+      <c r="C18" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="35">
+      <c r="F18" s="59">
+        <v>100</v>
+      </c>
+      <c r="G18" s="60">
+        <v>5</v>
+      </c>
+      <c r="I18" s="28">
+        <v>2</v>
+      </c>
+      <c r="J18" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H19" s="12" t="s">
         <v>25</v>
       </c>
@@ -2086,14 +2146,143 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="38">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="35">
         <f>SUM(G14:G18)</f>
+        <v>30</v>
+      </c>
+      <c r="I20" s="36">
+        <f>SUM(I14:J18)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="38">
+        <v>42662</v>
+      </c>
+      <c r="J22" s="41">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="24"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>14</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="39">
-        <f>SUM(I14:J18)</f>
-        <v>2</v>
+      <c r="D25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="6"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="24"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="27"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="35">
+        <f>SUM(G24:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="36">
+        <f>SUM(I24:J28)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2106,8 +2295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2122,108 +2312,108 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="53"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="57" t="s">
+      <c r="C5" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="50"/>
+      <c r="C10" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C12" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc_SCRUM/LesSprints.xlsx
+++ b/Doc_SCRUM/LesSprints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15195" yWindow="-15" windowWidth="9795" windowHeight="12075"/>
+    <workbookView xWindow="15195" yWindow="-15" windowWidth="9795" windowHeight="12075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tout" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="55">
   <si>
     <t xml:space="preserve">Story Name </t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>absent ( Dilan) 5</t>
+  </si>
+  <si>
+    <t>Sprint 2.5</t>
+  </si>
+  <si>
+    <t>ab</t>
   </si>
 </sst>
 </file>
@@ -918,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,7 +1752,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,7 +1766,8 @@
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2001,6 +2008,9 @@
       <c r="J12" s="41">
         <v>42655</v>
       </c>
+      <c r="K12" s="38">
+        <v>42662</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
@@ -2033,8 +2043,11 @@
       <c r="J14" s="34" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>6</v>
       </c>
@@ -2084,6 +2097,9 @@
       </c>
       <c r="J16" s="27" t="s">
         <v>52</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2221,7 +2237,9 @@
         <v>33</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="6">
+        <v>2</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="6">
         <v>0</v>
@@ -2278,7 +2296,7 @@
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="35">
         <f>SUM(G24:G28)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="36">
         <f>SUM(I24:J28)</f>
@@ -2293,10 +2311,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,6 +2433,56 @@
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="50"/>
+      <c r="C16" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doc_SCRUM/LesSprints.xlsx
+++ b/Doc_SCRUM/LesSprints.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15195" yWindow="-15" windowWidth="9795" windowHeight="12075" activeTab="2"/>
+    <workbookView xWindow="15195" yWindow="-15" windowWidth="9795" windowHeight="12075" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tout" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint" sheetId="2" r:id="rId2"/>
     <sheet name="SprntsReview" sheetId="3" r:id="rId3"/>
+    <sheet name="stand up " sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="63">
   <si>
     <t xml:space="preserve">Story Name </t>
   </si>
@@ -181,6 +182,30 @@
   </si>
   <si>
     <t>ab</t>
+  </si>
+  <si>
+    <t>ab(dernière heure)</t>
+  </si>
+  <si>
+    <t>gitHub</t>
+  </si>
+  <si>
+    <t>Git extensions (Changement pour des raisons de simplification)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ce que j'ai fait la semaine dernière </t>
+  </si>
+  <si>
+    <t>ce que je vais faire</t>
+  </si>
+  <si>
+    <t>intergration Musique / Son</t>
+  </si>
+  <si>
+    <t>Clique droit Drapeau</t>
+  </si>
+  <si>
+    <t>GitHub possait problème chez Jessica et chez Dilan, donc Mme Travnjak nous a dit de passé à Git Extensions</t>
   </si>
 </sst>
 </file>
@@ -526,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -620,6 +645,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,17 +2339,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="3" max="4" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2483,6 +2511,152 @@
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
     </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="58.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="57">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doc_SCRUM/LesSprints.xlsx
+++ b/Doc_SCRUM/LesSprints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15195" yWindow="-15" windowWidth="9795" windowHeight="12075" activeTab="3"/>
+    <workbookView xWindow="15195" yWindow="-15" windowWidth="9795" windowHeight="12075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tout" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -648,6 +648,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2341,7 +2345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2572,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F8"/>
+  <dimension ref="C3:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2585,72 +2589,76 @@
     <col min="6" max="6" width="58.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="57">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="71">
         <v>42676</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="49" t="s">
         <v>61</v>
       </c>
       <c r="F5" s="70" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="49" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="70" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="49" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="70" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="49" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="70" t="s">

--- a/Doc_SCRUM/LesSprints.xlsx
+++ b/Doc_SCRUM/LesSprints.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15195" yWindow="-15" windowWidth="9795" windowHeight="12075" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="7875" windowWidth="25230" windowHeight="4350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tout" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint" sheetId="2" r:id="rId2"/>
     <sheet name="SprntsReview" sheetId="3" r:id="rId3"/>
     <sheet name="stand up " sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="79">
   <si>
     <t xml:space="preserve">Story Name </t>
   </si>
@@ -206,6 +207,54 @@
   </si>
   <si>
     <t>GitHub possait problème chez Jessica et chez Dilan, donc Mme Travnjak nous a dit de passé à Git Extensions</t>
+  </si>
+  <si>
+    <t>Dilan,Gabor</t>
+  </si>
+  <si>
+    <t>Temps par Jour</t>
+  </si>
+  <si>
+    <t>Temps Passé</t>
+  </si>
+  <si>
+    <t>Absente</t>
+  </si>
+  <si>
+    <t>Base de  données score</t>
+  </si>
+  <si>
+    <t>ToDo</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sean </t>
+  </si>
+  <si>
+    <t>musique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refaire le planning </t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>Parti plus tôt</t>
+  </si>
+  <si>
+    <t>Remise en forme de la doc de suivit</t>
+  </si>
+  <si>
+    <t>Programme de détection des mines (Problème)</t>
+  </si>
+  <si>
+    <t>Changement vers git Extensions. Il y a eu des problèmes causés part GitHub</t>
+  </si>
+  <si>
+    <t>Suivre les presentations des élèves</t>
   </si>
 </sst>
 </file>
@@ -243,7 +292,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,8 +311,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -547,11 +608,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -637,6 +855,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -646,13 +877,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,7 +1243,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,11 +2037,11 @@
       <c r="B36" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="68"/>
-      <c r="E36" s="69"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="78"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -1781,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,7 +2085,7 @@
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1858,22 +2144,22 @@
         <v>29</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F4" s="26">
         <v>1000</v>
       </c>
       <c r="G4" s="27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I4" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" s="40" t="s">
         <v>31</v>
       </c>
       <c r="K4" s="34">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1931,7 +2217,7 @@
         <v>31</v>
       </c>
       <c r="K6" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1951,10 +2237,10 @@
         <v>150</v>
       </c>
       <c r="G7" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>31</v>
@@ -1980,16 +2266,16 @@
         <v>1000</v>
       </c>
       <c r="G8" s="32">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I8" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8" s="31" t="s">
         <v>31</v>
       </c>
       <c r="K8" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2003,11 +2289,11 @@
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H10" s="35">
         <f>SUM(G4:G8)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I10" s="36">
         <f>SUM(I4:K8)</f>
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2059,8 +2345,8 @@
       <c r="C14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="42" t="s">
-        <v>20</v>
+      <c r="D14" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>12</v>
@@ -2075,8 +2361,8 @@
       <c r="J14" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="34" t="s">
-        <v>49</v>
+      <c r="K14" s="34">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2112,8 +2398,8 @@
       <c r="C16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>20</v>
+      <c r="D16" s="70" t="s">
+        <v>29</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>50</v>
@@ -2134,7 +2420,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>12</v>
       </c>
@@ -2160,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="61">
         <v>15</v>
       </c>
@@ -2186,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H19" s="12" t="s">
         <v>25</v>
       </c>
@@ -2194,7 +2480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H20" s="35">
         <f>SUM(G14:G18)</f>
         <v>30</v>
@@ -2204,12 +2490,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
@@ -2234,8 +2520,11 @@
       <c r="J22" s="41">
         <v>42669</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="57">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2243,7 +2532,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="24"/>
       <c r="C24" s="22"/>
       <c r="D24" s="42"/>
@@ -2251,11 +2540,11 @@
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
       <c r="I24" s="33"/>
-      <c r="J24" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>14</v>
       </c>
@@ -2266,18 +2555,18 @@
         <v>20</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="6">
         <v>2</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="24"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22" t="s">
@@ -2289,11 +2578,11 @@
       <c r="F26" s="22"/>
       <c r="G26" s="27"/>
       <c r="I26" s="58"/>
-      <c r="J26" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="43"/>
@@ -2301,11 +2590,11 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="61"/>
       <c r="C28" s="62"/>
       <c r="D28" s="63"/>
@@ -2313,11 +2602,11 @@
       <c r="F28" s="59"/>
       <c r="G28" s="60"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H29" s="12" t="s">
         <v>25</v>
       </c>
@@ -2325,7 +2614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="35">
         <f>SUM(G24:G28)</f>
         <v>2</v>
@@ -2333,6 +2622,20 @@
       <c r="I30" s="36">
         <f>SUM(I24:J28)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2345,7 +2648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2590,7 +2893,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="71">
+      <c r="C3" s="68">
         <v>42676</v>
       </c>
       <c r="D3" s="49"/>
@@ -2610,7 +2913,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="69" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="49" t="s">
@@ -2619,12 +2922,12 @@
       <c r="E5" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="67" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="69" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="49" t="s">
@@ -2633,12 +2936,12 @@
       <c r="E6" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="67" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="69" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="49" t="s">
@@ -2647,12 +2950,12 @@
       <c r="E7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="67" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="69" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="49" t="s">
@@ -2661,11 +2964,1589 @@
       <c r="E8" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="67" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:U45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="44">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="96"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="79">
+        <v>42627</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="85">
+        <v>5</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="71">
+        <v>2</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="72">
+        <v>4</v>
+      </c>
+      <c r="J7" s="71">
+        <v>1</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="72">
+        <v>5</v>
+      </c>
+      <c r="N7" s="71">
+        <v>4</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="72">
+        <v>5</v>
+      </c>
+      <c r="R7" s="71">
+        <v>5</v>
+      </c>
+      <c r="S7" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="49"/>
+      <c r="U7" s="72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="71">
+        <v>3</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="72">
+        <v>1</v>
+      </c>
+      <c r="J8" s="71"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="72"/>
+    </row>
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="75"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C10" s="79">
+        <v>42634</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C11" s="80"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="90"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C12" s="80"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="90"/>
+    </row>
+    <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="81"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="93"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C14" s="79">
+        <v>42641</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="85">
+        <v>5</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="R14" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C15" s="80"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="71">
+        <v>3</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="72">
+        <v>5</v>
+      </c>
+      <c r="J15" s="71">
+        <v>1</v>
+      </c>
+      <c r="K15" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="72">
+        <v>5</v>
+      </c>
+      <c r="N15" s="71">
+        <v>1</v>
+      </c>
+      <c r="O15" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="72">
+        <v>2</v>
+      </c>
+      <c r="R15" s="71">
+        <v>5</v>
+      </c>
+      <c r="S15" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="T15" s="49"/>
+      <c r="U15" s="72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C16" s="80"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="71">
+        <v>4</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="72">
+        <v>3</v>
+      </c>
+      <c r="R16" s="71"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="72"/>
+    </row>
+    <row r="17" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="81"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="75"/>
+    </row>
+    <row r="18" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="44">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="96"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="79">
+        <v>42648</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="85">
+        <v>5</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="R20" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="U20" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="71">
+        <v>15</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="72">
+        <v>5</v>
+      </c>
+      <c r="J21" s="71">
+        <v>6</v>
+      </c>
+      <c r="K21" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="72">
+        <v>5</v>
+      </c>
+      <c r="N21" s="88"/>
+      <c r="O21" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="71">
+        <v>12</v>
+      </c>
+      <c r="S21" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="U21" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="71">
+        <v>15</v>
+      </c>
+      <c r="S22" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="T22" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="U22" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="93"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="75"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C24" s="79">
+        <v>42655</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="85">
+        <v>5</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="N24" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="R24" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="S24" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="T24" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="U24" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C25" s="80"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="89"/>
+      <c r="I25" s="90">
+        <v>0</v>
+      </c>
+      <c r="J25" s="88"/>
+      <c r="K25" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="89"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="97">
+        <v>10</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" s="99">
+        <v>5</v>
+      </c>
+      <c r="R25" s="97"/>
+      <c r="S25" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T25" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="U25" s="99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C26" s="80"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="89"/>
+      <c r="I26" s="90">
+        <v>0</v>
+      </c>
+      <c r="J26" s="88"/>
+      <c r="K26" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="89"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="99"/>
+    </row>
+    <row r="27" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="81"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93">
+        <v>0</v>
+      </c>
+      <c r="J27" s="91"/>
+      <c r="K27" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="92"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="101"/>
+      <c r="U27" s="102"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C28" s="79">
+        <v>42662</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="85">
+        <v>5</v>
+      </c>
+      <c r="F28" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="N28" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="R28" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="S28" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="T28" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="U28" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C29" s="80"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="71">
+        <v>15</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="72">
+        <v>3</v>
+      </c>
+      <c r="J29" s="71">
+        <v>10</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="72">
+        <v>3</v>
+      </c>
+      <c r="N29" s="88"/>
+      <c r="O29" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="71">
+        <v>5</v>
+      </c>
+      <c r="S29" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="T29" s="49"/>
+      <c r="U29" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="C30" s="80"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="72">
+        <v>2</v>
+      </c>
+      <c r="J30" s="71"/>
+      <c r="K30" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="49"/>
+      <c r="M30" s="72">
+        <v>2</v>
+      </c>
+      <c r="N30" s="88"/>
+      <c r="O30" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="15">
+        <v>8</v>
+      </c>
+      <c r="S30" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T30" s="49"/>
+      <c r="U30" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="81"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="T31" s="49"/>
+      <c r="U31" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="44">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="107"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="108"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="79">
+        <v>42676</v>
+      </c>
+      <c r="D34" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="85">
+        <v>4</v>
+      </c>
+      <c r="F34" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="N34" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="O34" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="R34" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="S34" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="T34" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="49"/>
+      <c r="I35" s="5">
+        <v>3</v>
+      </c>
+      <c r="J35" s="71"/>
+      <c r="K35" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="L35" s="49"/>
+      <c r="M35" s="72">
+        <v>3</v>
+      </c>
+      <c r="N35" s="97"/>
+      <c r="O35" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="99">
+        <v>3</v>
+      </c>
+      <c r="R35" s="71"/>
+      <c r="S35" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="T35" s="49"/>
+      <c r="U35" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="71">
+        <v>14</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="72">
+        <v>1</v>
+      </c>
+      <c r="J36" s="71">
+        <v>15</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="M36" s="72">
+        <v>1</v>
+      </c>
+      <c r="N36" s="97"/>
+      <c r="O36" s="98"/>
+      <c r="P36" s="98"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="15">
+        <v>8</v>
+      </c>
+      <c r="S36" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T36" s="49"/>
+      <c r="U36" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="5"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="101"/>
+      <c r="P37" s="101"/>
+      <c r="Q37" s="102"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="75"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C38" s="79">
+        <v>42683</v>
+      </c>
+      <c r="D38" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="85">
+        <v>4</v>
+      </c>
+      <c r="F38" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="N38" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="O38" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="R38" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="S38" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="T38" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="U38" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C39" s="80"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="98"/>
+      <c r="I39" s="99">
+        <v>1</v>
+      </c>
+      <c r="J39" s="15">
+        <v>8</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="98"/>
+      <c r="M39" s="99">
+        <v>3</v>
+      </c>
+      <c r="N39" s="97"/>
+      <c r="O39" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="P39" s="98"/>
+      <c r="Q39" s="99">
+        <v>1</v>
+      </c>
+      <c r="R39" s="97"/>
+      <c r="S39" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="T39" s="98"/>
+      <c r="U39" s="99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C40" s="80"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="97">
+        <v>14</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="99">
+        <v>2</v>
+      </c>
+      <c r="J40" s="97"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="97">
+        <v>14</v>
+      </c>
+      <c r="O40" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="P40" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q40" s="99">
+        <v>2</v>
+      </c>
+      <c r="R40" s="97"/>
+      <c r="S40" s="98"/>
+      <c r="T40" s="98"/>
+      <c r="U40" s="99"/>
+    </row>
+    <row r="41" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="81"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="101"/>
+      <c r="I41" s="102">
+        <v>1</v>
+      </c>
+      <c r="J41" s="100"/>
+      <c r="K41" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="L41" s="101"/>
+      <c r="M41" s="102">
+        <v>1</v>
+      </c>
+      <c r="N41" s="100"/>
+      <c r="O41" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="P41" s="101"/>
+      <c r="Q41" s="102">
+        <v>1</v>
+      </c>
+      <c r="R41" s="100"/>
+      <c r="S41" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="T41" s="101"/>
+      <c r="U41" s="102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C42" s="79">
+        <v>42690</v>
+      </c>
+      <c r="D42" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="85">
+        <v>5</v>
+      </c>
+      <c r="F42" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="J42" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M42" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="N42" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="O42" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="R42" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="S42" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="T42" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="U42" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C43" s="80"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="89"/>
+      <c r="Q43" s="90"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="72"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C44" s="80"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="88"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="90"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="49"/>
+      <c r="U44" s="72"/>
+    </row>
+    <row r="45" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="81"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="91"/>
+      <c r="O45" s="89"/>
+      <c r="P45" s="92"/>
+      <c r="Q45" s="93"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="74"/>
+      <c r="T45" s="74"/>
+      <c r="U45" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Doc_SCRUM/LesSprints.xlsx
+++ b/Doc_SCRUM/LesSprints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="7875" windowWidth="25230" windowHeight="4350" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="7875" windowWidth="25230" windowHeight="4350" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tout" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="80">
   <si>
     <t xml:space="preserve">Story Name </t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Suivre les presentations des élèves</t>
+  </si>
+  <si>
+    <t>Détermination des mines / découverte des 0</t>
   </si>
 </sst>
 </file>
@@ -868,6 +871,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -904,12 +924,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -919,26 +942,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2037,11 +2040,11 @@
       <c r="B36" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="77"/>
-      <c r="E36" s="78"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="95"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -2069,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -2977,8 +2980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:U45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3021,40 +3024,40 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95" t="s">
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95" t="s">
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="94" t="s">
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="96"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="110"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="79">
+      <c r="C6" s="96">
         <v>42627</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="102">
         <v>5</v>
       </c>
       <c r="F6" s="71" t="s">
@@ -3108,9 +3111,9 @@
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="86"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="71">
         <v>2</v>
       </c>
@@ -3160,9 +3163,9 @@
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="86"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="103"/>
       <c r="F8" s="71">
         <v>3</v>
       </c>
@@ -3190,9 +3193,9 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="87"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="73"/>
       <c r="G9" s="74"/>
       <c r="H9" s="74"/>
@@ -3211,13 +3214,13 @@
       <c r="U9" s="75"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="79">
+      <c r="C10" s="96">
         <v>42634</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="102" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="71" t="s">
@@ -3270,76 +3273,76 @@
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="80"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="90"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="78"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="80"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="90"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="78"/>
     </row>
     <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="81"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="93"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="81"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C14" s="79">
+      <c r="C14" s="96">
         <v>42641</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="102">
         <v>5</v>
       </c>
       <c r="F14" s="71" t="s">
@@ -3392,9 +3395,9 @@
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C15" s="80"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="86"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="103"/>
       <c r="F15" s="71">
         <v>3</v>
       </c>
@@ -3443,9 +3446,9 @@
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="80"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="86"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="103"/>
       <c r="F16" s="71"/>
       <c r="G16" s="49"/>
       <c r="H16" s="49"/>
@@ -3472,9 +3475,9 @@
       <c r="U16" s="72"/>
     </row>
     <row r="17" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="81"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="87"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="104"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
       <c r="H17" s="74"/>
@@ -3500,40 +3503,40 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="94" t="s">
+      <c r="F19" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95" t="s">
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95" t="s">
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="94" t="s">
+      <c r="O19" s="109"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="109"/>
+      <c r="R19" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="96"/>
+      <c r="S19" s="109"/>
+      <c r="T19" s="109"/>
+      <c r="U19" s="110"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="79">
+      <c r="C20" s="96">
         <v>42648</v>
       </c>
-      <c r="D20" s="82" t="s">
+      <c r="D20" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="85">
+      <c r="E20" s="102">
         <v>5</v>
       </c>
       <c r="F20" s="71" t="s">
@@ -3587,9 +3590,9 @@
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="86"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="103"/>
       <c r="F21" s="71">
         <v>15</v>
       </c>
@@ -3614,12 +3617,12 @@
       <c r="M21" s="72">
         <v>5</v>
       </c>
-      <c r="N21" s="88"/>
-      <c r="O21" s="89" t="s">
+      <c r="N21" s="76"/>
+      <c r="O21" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="90"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="78"/>
       <c r="R21" s="71">
         <v>12</v>
       </c>
@@ -3633,11 +3636,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="86"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="103"/>
       <c r="F22" s="71"/>
       <c r="G22" s="49"/>
       <c r="H22" s="49"/>
@@ -3646,12 +3649,12 @@
       <c r="K22" s="49"/>
       <c r="L22" s="49"/>
       <c r="M22" s="72"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="89" t="s">
+      <c r="N22" s="76"/>
+      <c r="O22" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="90"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="78"/>
       <c r="R22" s="71">
         <v>15</v>
       </c>
@@ -3667,9 +3670,9 @@
     </row>
     <row r="23" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="87"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="104"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
       <c r="H23" s="74"/>
@@ -3678,25 +3681,25 @@
       <c r="K23" s="74"/>
       <c r="L23" s="74"/>
       <c r="M23" s="75"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="89" t="s">
+      <c r="N23" s="79"/>
+      <c r="O23" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="93"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="81"/>
       <c r="R23" s="73"/>
       <c r="S23" s="74"/>
       <c r="T23" s="74"/>
       <c r="U23" s="75"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C24" s="79">
+      <c r="C24" s="96">
         <v>42655</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="85">
+      <c r="E24" s="102">
         <v>5</v>
       </c>
       <c r="F24" s="71" t="s">
@@ -3749,108 +3752,108 @@
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C25" s="80"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="89" t="s">
+      <c r="C25" s="97"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="89"/>
-      <c r="I25" s="90">
-        <v>0</v>
-      </c>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89" t="s">
+      <c r="H25" s="77"/>
+      <c r="I25" s="78">
+        <v>0</v>
+      </c>
+      <c r="J25" s="76"/>
+      <c r="K25" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="89"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="97">
+      <c r="L25" s="77"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="82">
         <v>10</v>
       </c>
       <c r="O25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="P25" s="98" t="s">
+      <c r="P25" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="Q25" s="99">
+      <c r="Q25" s="84">
         <v>5</v>
       </c>
-      <c r="R25" s="97"/>
+      <c r="R25" s="82"/>
       <c r="S25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="T25" s="98" t="s">
+      <c r="T25" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="U25" s="99">
+      <c r="U25" s="84">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C26" s="80"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="89" t="s">
+      <c r="C26" s="97"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="89"/>
-      <c r="I26" s="90">
-        <v>0</v>
-      </c>
-      <c r="J26" s="88"/>
-      <c r="K26" s="89" t="s">
+      <c r="H26" s="77"/>
+      <c r="I26" s="78">
+        <v>0</v>
+      </c>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="L26" s="89"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="99"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="84"/>
     </row>
     <row r="27" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="81"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="89" t="s">
+      <c r="C27" s="98"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="92"/>
-      <c r="I27" s="93">
-        <v>0</v>
-      </c>
-      <c r="J27" s="91"/>
-      <c r="K27" s="89" t="s">
+      <c r="H27" s="80"/>
+      <c r="I27" s="81">
+        <v>0</v>
+      </c>
+      <c r="J27" s="79"/>
+      <c r="K27" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="92"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="101"/>
-      <c r="U27" s="102"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="87"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C28" s="79">
+      <c r="C28" s="96">
         <v>42662</v>
       </c>
-      <c r="D28" s="82" t="s">
+      <c r="D28" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="85">
+      <c r="E28" s="102">
         <v>5</v>
       </c>
       <c r="F28" s="71" t="s">
@@ -3903,9 +3906,9 @@
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C29" s="80"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="86"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="103"/>
       <c r="F29" s="71">
         <v>15</v>
       </c>
@@ -3930,12 +3933,12 @@
       <c r="M29" s="72">
         <v>3</v>
       </c>
-      <c r="N29" s="88"/>
-      <c r="O29" s="89" t="s">
+      <c r="N29" s="76"/>
+      <c r="O29" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="90"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="78"/>
       <c r="R29" s="71">
         <v>5</v>
       </c>
@@ -3948,9 +3951,9 @@
       </c>
     </row>
     <row r="30" spans="2:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="C30" s="80"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="86"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="103"/>
       <c r="F30" s="71"/>
       <c r="G30" s="67" t="s">
         <v>77</v>
@@ -3969,12 +3972,12 @@
       <c r="M30" s="72">
         <v>2</v>
       </c>
-      <c r="N30" s="88"/>
-      <c r="O30" s="89" t="s">
+      <c r="N30" s="76"/>
+      <c r="O30" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="90"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="78"/>
       <c r="R30" s="15">
         <v>8</v>
       </c>
@@ -3987,9 +3990,9 @@
       </c>
     </row>
     <row r="31" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="81"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="87"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="73"/>
       <c r="G31" s="74"/>
       <c r="H31" s="74"/>
@@ -3998,12 +4001,12 @@
       <c r="K31" s="74"/>
       <c r="L31" s="74"/>
       <c r="M31" s="75"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="89" t="s">
+      <c r="N31" s="79"/>
+      <c r="O31" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="93"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="81"/>
       <c r="R31" s="71"/>
       <c r="S31" s="49" t="s">
         <v>74</v>
@@ -4024,93 +4027,93 @@
       <c r="F33" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107" t="s">
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="107" t="s">
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="O33" s="107"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="107"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
       <c r="R33" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="S33" s="107"/>
-      <c r="T33" s="107"/>
-      <c r="U33" s="108"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="107"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
-      <c r="C34" s="79">
+      <c r="C34" s="96">
         <v>42676</v>
       </c>
-      <c r="D34" s="82" t="s">
+      <c r="D34" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="85">
+      <c r="E34" s="102">
         <v>4</v>
       </c>
-      <c r="F34" s="109" t="s">
+      <c r="F34" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="I34" s="110" t="s">
+      <c r="G34" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="J34" s="109" t="s">
+      <c r="J34" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="L34" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="M34" s="110" t="s">
+      <c r="K34" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="N34" s="109" t="s">
+      <c r="N34" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="O34" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="P34" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="110" t="s">
+      <c r="O34" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="R34" s="109" t="s">
+      <c r="R34" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="S34" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="T34" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="U34" s="110" t="s">
+      <c r="S34" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="T34" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" s="92" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:21" ht="45" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="86"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="103"/>
       <c r="F35" s="4"/>
       <c r="G35" s="67" t="s">
         <v>77</v>
@@ -4127,12 +4130,12 @@
       <c r="M35" s="72">
         <v>3</v>
       </c>
-      <c r="N35" s="97"/>
+      <c r="N35" s="82"/>
       <c r="O35" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="99">
+      <c r="P35" s="83"/>
+      <c r="Q35" s="84">
         <v>3</v>
       </c>
       <c r="R35" s="71"/>
@@ -4146,9 +4149,9 @@
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="86"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="103"/>
       <c r="F36" s="71">
         <v>14</v>
       </c>
@@ -4173,10 +4176,12 @@
       <c r="M36" s="72">
         <v>1</v>
       </c>
-      <c r="N36" s="97"/>
-      <c r="O36" s="98"/>
-      <c r="P36" s="98"/>
-      <c r="Q36" s="99"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="P36" s="83"/>
+      <c r="Q36" s="84"/>
       <c r="R36" s="15">
         <v>8</v>
       </c>
@@ -4190,9 +4195,9 @@
     </row>
     <row r="37" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="87"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="104"/>
       <c r="F37" s="73"/>
       <c r="G37" s="74"/>
       <c r="H37" s="74"/>
@@ -4201,23 +4206,23 @@
       <c r="K37" s="74"/>
       <c r="L37" s="74"/>
       <c r="M37" s="75"/>
-      <c r="N37" s="100"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="101"/>
-      <c r="Q37" s="102"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="86"/>
+      <c r="P37" s="86"/>
+      <c r="Q37" s="87"/>
       <c r="R37" s="73"/>
       <c r="S37" s="74"/>
       <c r="T37" s="74"/>
       <c r="U37" s="75"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C38" s="79">
+      <c r="C38" s="96">
         <v>42683</v>
       </c>
-      <c r="D38" s="82" t="s">
+      <c r="D38" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="85">
+      <c r="E38" s="102">
         <v>4</v>
       </c>
       <c r="F38" s="71" t="s">
@@ -4247,7 +4252,7 @@
       <c r="N38" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="O38" s="104" t="s">
+      <c r="O38" s="89" t="s">
         <v>0</v>
       </c>
       <c r="P38" s="49" t="s">
@@ -4270,15 +4275,15 @@
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C39" s="80"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="98" t="s">
+      <c r="C39" s="97"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="98"/>
-      <c r="I39" s="99">
+      <c r="H39" s="83"/>
+      <c r="I39" s="84">
         <v>1</v>
       </c>
       <c r="J39" s="15">
@@ -4287,115 +4292,115 @@
       <c r="K39" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="98"/>
-      <c r="M39" s="99">
+      <c r="L39" s="83"/>
+      <c r="M39" s="84">
         <v>3</v>
       </c>
-      <c r="N39" s="97"/>
+      <c r="N39" s="82"/>
       <c r="O39" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P39" s="98"/>
-      <c r="Q39" s="99">
-        <v>1</v>
-      </c>
-      <c r="R39" s="97"/>
-      <c r="S39" s="98" t="s">
+      <c r="P39" s="83"/>
+      <c r="Q39" s="84">
+        <v>1</v>
+      </c>
+      <c r="R39" s="82"/>
+      <c r="S39" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="T39" s="98"/>
-      <c r="U39" s="99">
+      <c r="T39" s="83"/>
+      <c r="U39" s="84">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C40" s="80"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="97">
+      <c r="C40" s="97"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="82">
         <v>14</v>
       </c>
       <c r="G40" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="98" t="s">
+      <c r="H40" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I40" s="99">
+      <c r="I40" s="84">
         <v>2</v>
       </c>
-      <c r="J40" s="97"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="99"/>
-      <c r="N40" s="97">
+      <c r="J40" s="82"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="82">
         <v>14</v>
       </c>
       <c r="O40" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="P40" s="98" t="s">
+      <c r="P40" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="Q40" s="99">
+      <c r="Q40" s="84">
         <v>2</v>
       </c>
-      <c r="R40" s="97"/>
-      <c r="S40" s="98"/>
-      <c r="T40" s="98"/>
-      <c r="U40" s="99"/>
+      <c r="R40" s="82"/>
+      <c r="S40" s="83"/>
+      <c r="T40" s="83"/>
+      <c r="U40" s="84"/>
     </row>
     <row r="41" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="81"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="103" t="s">
+      <c r="C41" s="98"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="H41" s="101"/>
-      <c r="I41" s="102">
-        <v>1</v>
-      </c>
-      <c r="J41" s="100"/>
-      <c r="K41" s="103" t="s">
+      <c r="H41" s="86"/>
+      <c r="I41" s="87">
+        <v>1</v>
+      </c>
+      <c r="J41" s="85"/>
+      <c r="K41" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="L41" s="101"/>
-      <c r="M41" s="102">
-        <v>1</v>
-      </c>
-      <c r="N41" s="100"/>
-      <c r="O41" s="103" t="s">
+      <c r="L41" s="86"/>
+      <c r="M41" s="87">
+        <v>1</v>
+      </c>
+      <c r="N41" s="85"/>
+      <c r="O41" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="P41" s="101"/>
-      <c r="Q41" s="102">
-        <v>1</v>
-      </c>
-      <c r="R41" s="100"/>
-      <c r="S41" s="103" t="s">
+      <c r="P41" s="86"/>
+      <c r="Q41" s="87">
+        <v>1</v>
+      </c>
+      <c r="R41" s="85"/>
+      <c r="S41" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="T41" s="101"/>
-      <c r="U41" s="102">
+      <c r="T41" s="86"/>
+      <c r="U41" s="87">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C42" s="79">
+      <c r="C42" s="96">
         <v>42690</v>
       </c>
-      <c r="D42" s="82" t="s">
+      <c r="D42" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="85">
+      <c r="E42" s="102">
         <v>5</v>
       </c>
       <c r="F42" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="104" t="s">
+      <c r="G42" s="89" t="s">
         <v>0</v>
       </c>
       <c r="H42" s="49" t="s">
@@ -4407,7 +4412,7 @@
       <c r="J42" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="105" t="s">
+      <c r="K42" s="90" t="s">
         <v>0</v>
       </c>
       <c r="L42" s="49" t="s">
@@ -4442,9 +4447,9 @@
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C43" s="80"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="86"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="103"/>
       <c r="F43" s="71"/>
       <c r="G43" s="22"/>
       <c r="H43" s="49"/>
@@ -4453,19 +4458,19 @@
       <c r="K43" s="22"/>
       <c r="L43" s="49"/>
       <c r="M43" s="72"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="89"/>
-      <c r="Q43" s="90"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="78"/>
       <c r="R43" s="71"/>
       <c r="S43" s="54"/>
       <c r="T43" s="49"/>
       <c r="U43" s="72"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C44" s="80"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="86"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="103"/>
       <c r="F44" s="71"/>
       <c r="G44" s="49"/>
       <c r="H44" s="49"/>
@@ -4474,19 +4479,19 @@
       <c r="K44" s="49"/>
       <c r="L44" s="49"/>
       <c r="M44" s="72"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="90"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="78"/>
       <c r="R44" s="71"/>
       <c r="S44" s="49"/>
       <c r="T44" s="49"/>
       <c r="U44" s="72"/>
     </row>
     <row r="45" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="81"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="87"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="104"/>
       <c r="F45" s="73"/>
       <c r="G45" s="74"/>
       <c r="H45" s="74"/>
@@ -4495,10 +4500,10 @@
       <c r="K45" s="74"/>
       <c r="L45" s="74"/>
       <c r="M45" s="75"/>
-      <c r="N45" s="91"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="92"/>
-      <c r="Q45" s="93"/>
+      <c r="N45" s="79"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="81"/>
       <c r="R45" s="73"/>
       <c r="S45" s="74"/>
       <c r="T45" s="74"/>
@@ -4506,33 +4511,9 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="R33:U33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
@@ -4540,11 +4521,35 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="R19:U19"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc_SCRUM/LesSprints.xlsx
+++ b/Doc_SCRUM/LesSprints.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="81">
   <si>
     <t xml:space="preserve">Story Name </t>
   </si>
@@ -254,10 +254,13 @@
     <t>Changement vers git Extensions. Il y a eu des problèmes causés part GitHub</t>
   </si>
   <si>
-    <t>Suivre les presentations des élèves</t>
-  </si>
-  <si>
     <t>Détermination des mines / découverte des 0</t>
+  </si>
+  <si>
+    <t>Suivre presentation des élèves</t>
+  </si>
+  <si>
+    <t>Evaluation des élèves</t>
   </si>
 </sst>
 </file>
@@ -327,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -731,48 +734,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -885,7 +851,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -924,22 +889,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1246,7 +1205,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,11 +1999,11 @@
       <c r="B36" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="93" t="s">
+      <c r="C36" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="94"/>
-      <c r="E36" s="95"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="94"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -2978,10 +2937,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U45"/>
+  <dimension ref="B3:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2992,19 +2951,19 @@
     <col min="6" max="6" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
@@ -3018,46 +2977,46 @@
     </row>
     <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="44">
+      <c r="B5" s="104">
         <v>1</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109" t="s">
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109" t="s">
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="108" t="s">
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="109"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="110"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="107"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="96">
+      <c r="C6" s="95">
         <v>42627</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="102">
+      <c r="E6" s="101">
         <v>5</v>
       </c>
       <c r="F6" s="71" t="s">
@@ -3111,9 +3070,9 @@
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="103"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="102"/>
       <c r="F7" s="71">
         <v>2</v>
       </c>
@@ -3163,9 +3122,9 @@
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="103"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="102"/>
       <c r="F8" s="71">
         <v>3</v>
       </c>
@@ -3193,9 +3152,9 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="104"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="73"/>
       <c r="G9" s="74"/>
       <c r="H9" s="74"/>
@@ -3214,13 +3173,13 @@
       <c r="U9" s="75"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="96">
+      <c r="C10" s="95">
         <v>42634</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="101" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="71" t="s">
@@ -3273,9 +3232,9 @@
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="97"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="103"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="102"/>
       <c r="F11" s="76"/>
       <c r="G11" s="77"/>
       <c r="H11" s="77"/>
@@ -3294,9 +3253,9 @@
       <c r="U11" s="78"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="97"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="103"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="102"/>
       <c r="F12" s="76"/>
       <c r="G12" s="77"/>
       <c r="H12" s="77"/>
@@ -3315,9 +3274,9 @@
       <c r="U12" s="78"/>
     </row>
     <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="98"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="104"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="103"/>
       <c r="F13" s="79"/>
       <c r="G13" s="80"/>
       <c r="H13" s="80"/>
@@ -3336,13 +3295,13 @@
       <c r="U13" s="81"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C14" s="96">
+      <c r="C14" s="95">
         <v>42641</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="102">
+      <c r="E14" s="101">
         <v>5</v>
       </c>
       <c r="F14" s="71" t="s">
@@ -3395,9 +3354,9 @@
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C15" s="97"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="103"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="102"/>
       <c r="F15" s="71">
         <v>3</v>
       </c>
@@ -3446,9 +3405,9 @@
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="97"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="103"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="102"/>
       <c r="F16" s="71"/>
       <c r="G16" s="49"/>
       <c r="H16" s="49"/>
@@ -3475,9 +3434,9 @@
       <c r="U16" s="72"/>
     </row>
     <row r="17" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="98"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="104"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="103"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
       <c r="H17" s="74"/>
@@ -3497,46 +3456,46 @@
     </row>
     <row r="18" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="44">
+      <c r="B19" s="104">
         <v>2</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="108" t="s">
+      <c r="F19" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109" t="s">
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="109" t="s">
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="109"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="108" t="s">
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="S19" s="109"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="110"/>
+      <c r="S19" s="106"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="107"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="96">
+      <c r="C20" s="95">
         <v>42648</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="102">
+      <c r="E20" s="101">
         <v>5</v>
       </c>
       <c r="F20" s="71" t="s">
@@ -3590,9 +3549,9 @@
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="103"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="102"/>
       <c r="F21" s="71">
         <v>15</v>
       </c>
@@ -3638,9 +3597,9 @@
     </row>
     <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="103"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="102"/>
       <c r="F22" s="71"/>
       <c r="G22" s="49"/>
       <c r="H22" s="49"/>
@@ -3670,9 +3629,9 @@
     </row>
     <row r="23" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="104"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="103"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
       <c r="H23" s="74"/>
@@ -3693,13 +3652,13 @@
       <c r="U23" s="75"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C24" s="96">
+      <c r="C24" s="95">
         <v>42655</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="102">
+      <c r="E24" s="101">
         <v>5</v>
       </c>
       <c r="F24" s="71" t="s">
@@ -3752,9 +3711,9 @@
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C25" s="97"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="103"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="102"/>
       <c r="F25" s="76"/>
       <c r="G25" s="77" t="s">
         <v>66</v>
@@ -3793,9 +3752,9 @@
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C26" s="97"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="103"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="102"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77" t="s">
         <v>66</v>
@@ -3820,9 +3779,9 @@
       <c r="U26" s="84"/>
     </row>
     <row r="27" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="98"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="104"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="103"/>
       <c r="F27" s="79"/>
       <c r="G27" s="77" t="s">
         <v>66</v>
@@ -3847,13 +3806,13 @@
       <c r="U27" s="87"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C28" s="96">
+      <c r="C28" s="95">
         <v>42662</v>
       </c>
-      <c r="D28" s="99" t="s">
+      <c r="D28" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="102">
+      <c r="E28" s="101">
         <v>5</v>
       </c>
       <c r="F28" s="71" t="s">
@@ -3906,9 +3865,9 @@
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C29" s="97"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="103"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="102"/>
       <c r="F29" s="71">
         <v>15</v>
       </c>
@@ -3950,10 +3909,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="C30" s="97"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="103"/>
+    <row r="30" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="96"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="102"/>
       <c r="F30" s="71"/>
       <c r="G30" s="67" t="s">
         <v>77</v>
@@ -3990,9 +3949,9 @@
       </c>
     </row>
     <row r="31" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="98"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="104"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="103"/>
       <c r="F31" s="73"/>
       <c r="G31" s="74"/>
       <c r="H31" s="74"/>
@@ -4016,540 +3975,553 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="44">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C32" s="95">
+        <v>42676</v>
+      </c>
+      <c r="D32" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="101">
+        <v>4</v>
+      </c>
+      <c r="F32" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="N32" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="R32" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="S32" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="T32" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="U32" s="91" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="C33" s="96"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="49"/>
+      <c r="I33" s="5">
         <v>3</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="106" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105" t="s">
-        <v>21</v>
-      </c>
-      <c r="O33" s="105"/>
-      <c r="P33" s="105"/>
-      <c r="Q33" s="105"/>
-      <c r="R33" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="S33" s="105"/>
-      <c r="T33" s="105"/>
-      <c r="U33" s="107"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33" s="49"/>
+      <c r="M33" s="72">
+        <v>3</v>
+      </c>
+      <c r="N33" s="82"/>
+      <c r="O33" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="84">
+        <v>3</v>
+      </c>
+      <c r="R33" s="71"/>
+      <c r="S33" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="T33" s="49"/>
+      <c r="U33" s="72">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="96">
-        <v>42676</v>
-      </c>
-      <c r="D34" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="102">
-        <v>4</v>
-      </c>
-      <c r="F34" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="I34" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="J34" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="L34" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="M34" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="N34" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="O34" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="P34" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="R34" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="S34" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="T34" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="U34" s="92" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="2:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="71">
+        <v>14</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="72">
+        <v>1</v>
+      </c>
+      <c r="J34" s="71">
+        <v>15</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" s="72">
+        <v>1</v>
+      </c>
+      <c r="N34" s="82"/>
+      <c r="O34" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="15">
+        <v>8</v>
+      </c>
+      <c r="S34" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T34" s="49"/>
+      <c r="U34" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="97"/>
       <c r="D35" s="100"/>
       <c r="E35" s="103"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="H35" s="49"/>
-      <c r="I35" s="5">
+      <c r="F35" s="73"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="74"/>
+      <c r="U35" s="75"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C36" s="95">
+        <v>42683</v>
+      </c>
+      <c r="D36" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="101">
+        <v>4</v>
+      </c>
+      <c r="F36" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="N36" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="O36" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="P36" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="R36" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="S36" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="T36" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="U36" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C37" s="96"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="83"/>
+      <c r="I37" s="84">
+        <v>1</v>
+      </c>
+      <c r="J37" s="15">
+        <v>8</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="83"/>
+      <c r="M37" s="84">
         <v>3</v>
       </c>
-      <c r="J35" s="71"/>
-      <c r="K35" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="L35" s="49"/>
-      <c r="M35" s="72">
+      <c r="N37" s="82"/>
+      <c r="O37" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" s="83"/>
+      <c r="Q37" s="84">
+        <v>1</v>
+      </c>
+      <c r="R37" s="82"/>
+      <c r="S37" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="T37" s="83"/>
+      <c r="U37" s="84">
         <v>3</v>
       </c>
-      <c r="N35" s="82"/>
-      <c r="O35" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="84">
-        <v>3</v>
-      </c>
-      <c r="R35" s="71"/>
-      <c r="S35" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="T35" s="49"/>
-      <c r="U35" s="72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="71">
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C38" s="96"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="82">
         <v>14</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G38" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="49" t="s">
+      <c r="H38" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="72">
-        <v>1</v>
-      </c>
-      <c r="J36" s="71">
-        <v>15</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="L36" s="49" t="s">
+      <c r="I38" s="84">
+        <v>2</v>
+      </c>
+      <c r="J38" s="82"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="84"/>
+      <c r="N38" s="82">
+        <v>14</v>
+      </c>
+      <c r="O38" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="P38" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="M36" s="72">
-        <v>1</v>
-      </c>
-      <c r="N36" s="82"/>
-      <c r="O36" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="P36" s="83"/>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="15">
-        <v>8</v>
-      </c>
-      <c r="S36" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="T36" s="49"/>
-      <c r="U36" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="5"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="86"/>
-      <c r="P37" s="86"/>
-      <c r="Q37" s="87"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="75"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C38" s="96">
-        <v>42683</v>
-      </c>
-      <c r="D38" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="102">
-        <v>4</v>
-      </c>
-      <c r="F38" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="I38" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="J38" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="L38" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="M38" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="N38" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="O38" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="P38" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="R38" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="S38" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="T38" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="U38" s="72" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q38" s="84">
+        <v>2</v>
+      </c>
+      <c r="R38" s="82"/>
+      <c r="S38" s="83"/>
+      <c r="T38" s="83"/>
+      <c r="U38" s="84"/>
+    </row>
+    <row r="39" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="97"/>
       <c r="D39" s="100"/>
       <c r="E39" s="103"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" s="83"/>
-      <c r="I39" s="84">
-        <v>1</v>
-      </c>
-      <c r="J39" s="15">
+      <c r="F39" s="85"/>
+      <c r="G39" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" s="86"/>
+      <c r="I39" s="87">
+        <v>1</v>
+      </c>
+      <c r="J39" s="85"/>
+      <c r="K39" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="L39" s="86"/>
+      <c r="M39" s="87">
+        <v>1</v>
+      </c>
+      <c r="N39" s="85"/>
+      <c r="O39" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="P39" s="86"/>
+      <c r="Q39" s="87">
+        <v>1</v>
+      </c>
+      <c r="R39" s="85"/>
+      <c r="S39" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="T39" s="86"/>
+      <c r="U39" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C40" s="95">
+        <v>42690</v>
+      </c>
+      <c r="D40" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="101">
+        <v>5</v>
+      </c>
+      <c r="F40" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M40" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="N40" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="O40" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="R40" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="S40" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="T40" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="U40" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C41" s="96"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="77"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L41" s="49"/>
+      <c r="M41" s="72">
+        <v>1</v>
+      </c>
+      <c r="N41" s="71"/>
+      <c r="O41" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="72">
+        <v>1</v>
+      </c>
+      <c r="R41" s="71"/>
+      <c r="S41" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="T41" s="49"/>
+      <c r="U41" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C42" s="96"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="77"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="15">
         <v>8</v>
       </c>
-      <c r="K39" s="15" t="s">
+      <c r="K42" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="83"/>
-      <c r="M39" s="84">
-        <v>3</v>
-      </c>
-      <c r="N39" s="82"/>
-      <c r="O39" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="P39" s="83"/>
-      <c r="Q39" s="84">
-        <v>1</v>
-      </c>
-      <c r="R39" s="82"/>
-      <c r="S39" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="T39" s="83"/>
-      <c r="U39" s="84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C40" s="97"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="82">
-        <v>14</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" s="83" t="s">
+      <c r="L42" s="49"/>
+      <c r="M42" s="72">
+        <v>1</v>
+      </c>
+      <c r="N42" s="17">
+        <v>9</v>
+      </c>
+      <c r="O42" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="72">
+        <v>4</v>
+      </c>
+      <c r="R42" s="71">
+        <v>15</v>
+      </c>
+      <c r="S42" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="T42" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I40" s="84">
+      <c r="U42" s="72">
         <v>2</v>
       </c>
-      <c r="J40" s="82"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="82">
-        <v>14</v>
-      </c>
-      <c r="O40" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="P40" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q40" s="84">
-        <v>2</v>
-      </c>
-      <c r="R40" s="82"/>
-      <c r="S40" s="83"/>
-      <c r="T40" s="83"/>
-      <c r="U40" s="84"/>
-    </row>
-    <row r="41" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="98"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="H41" s="86"/>
-      <c r="I41" s="87">
-        <v>1</v>
-      </c>
-      <c r="J41" s="85"/>
-      <c r="K41" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="L41" s="86"/>
-      <c r="M41" s="87">
-        <v>1</v>
-      </c>
-      <c r="N41" s="85"/>
-      <c r="O41" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="P41" s="86"/>
-      <c r="Q41" s="87">
-        <v>1</v>
-      </c>
-      <c r="R41" s="85"/>
-      <c r="S41" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="T41" s="86"/>
-      <c r="U41" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C42" s="96">
-        <v>42690</v>
-      </c>
-      <c r="D42" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="102">
-        <v>5</v>
-      </c>
-      <c r="F42" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="I42" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="J42" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="K42" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="L42" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="M42" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="N42" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="O42" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="P42" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="R42" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="S42" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="T42" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="U42" s="72" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="97"/>
       <c r="D43" s="100"/>
       <c r="E43" s="103"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="77"/>
-      <c r="P43" s="77"/>
-      <c r="Q43" s="78"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="49"/>
-      <c r="U43" s="72"/>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C44" s="97"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="77"/>
-      <c r="P44" s="77"/>
-      <c r="Q44" s="78"/>
-      <c r="R44" s="71"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="49"/>
-      <c r="U44" s="72"/>
-    </row>
-    <row r="45" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="98"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="75"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="77"/>
-      <c r="P45" s="80"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="73"/>
-      <c r="S45" s="74"/>
-      <c r="T45" s="74"/>
-      <c r="U45" s="75"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="80"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43" s="74"/>
+      <c r="M43" s="75">
+        <v>3</v>
+      </c>
+      <c r="N43" s="73"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="75"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="74"/>
+      <c r="T43" s="74"/>
+      <c r="U43" s="75"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="35">
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="R5:U5"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="R33:U33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc_SCRUM/LesSprints.xlsx
+++ b/Doc_SCRUM/LesSprints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="7875" windowWidth="25230" windowHeight="4350" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="3900" windowWidth="25215" windowHeight="8325" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tout" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="83">
   <si>
     <t xml:space="preserve">Story Name </t>
   </si>
@@ -248,19 +248,25 @@
     <t>Remise en forme de la doc de suivit</t>
   </si>
   <si>
-    <t>Programme de détection des mines (Problème)</t>
-  </si>
-  <si>
     <t>Changement vers git Extensions. Il y a eu des problèmes causés part GitHub</t>
   </si>
   <si>
-    <t>Détermination des mines / découverte des 0</t>
-  </si>
-  <si>
     <t>Suivre presentation des élèves</t>
   </si>
   <si>
     <t>Evaluation des élèves</t>
+  </si>
+  <si>
+    <t>La documentation des sprints était trop simplifié pour nos besoin</t>
+  </si>
+  <si>
+    <t>Il y a un souci avec le programme qui crash</t>
+  </si>
+  <si>
+    <t>Devoilage des cases</t>
+  </si>
+  <si>
+    <t>Dévoiler des cases</t>
   </si>
 </sst>
 </file>
@@ -298,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,8 +335,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -734,11 +746,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -827,10 +965,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
@@ -853,6 +987,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -889,9 +1026,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -901,6 +1035,51 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1601,7 +1780,9 @@
       <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="C12" s="19" t="s">
         <v>20</v>
       </c>
@@ -1999,11 +2180,11 @@
       <c r="B36" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="92" t="s">
+      <c r="C36" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="93"/>
-      <c r="E36" s="94"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="93"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -2031,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2541,7 @@
       <c r="C16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="68" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="22" t="s">
@@ -2841,41 +3022,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F8"/>
+  <dimension ref="C2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="41.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="68">
+      <c r="C3" s="107">
         <v>42676</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="89"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="49"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="108" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="109" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="49" t="s">
@@ -2884,12 +3066,12 @@
       <c r="E5" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="110" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="109" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="49" t="s">
@@ -2898,12 +3080,12 @@
       <c r="E6" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="110" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="109" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="49" t="s">
@@ -2912,23 +3094,167 @@
       <c r="E7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="110" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="69" t="s">
+    <row r="8" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="112" t="s">
         <v>62</v>
       </c>
+    </row>
+    <row r="9" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="107">
+        <v>42683</v>
+      </c>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="89"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="69"/>
+      <c r="D11" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="108" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="110"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="110"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="110" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="112" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="107">
+        <v>42690</v>
+      </c>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="89"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="69"/>
+      <c r="D18" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="108" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="110"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="110"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="110" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="112"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2937,10 +3263,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U52"/>
+  <dimension ref="B3:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D33" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2977,49 +3303,49 @@
     </row>
     <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="104">
+      <c r="B5" s="90">
         <v>1</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="105" t="s">
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="105" t="s">
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="105" t="s">
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="107"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="105"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="95">
+      <c r="C6" s="94">
         <v>42627</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="101">
+      <c r="E6" s="100">
         <v>5</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="69" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="49" t="s">
@@ -3028,10 +3354,10 @@
       <c r="H6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="69" t="s">
         <v>7</v>
       </c>
       <c r="K6" s="49" t="s">
@@ -3040,10 +3366,10 @@
       <c r="L6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="72" t="s">
+      <c r="M6" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="71" t="s">
+      <c r="N6" s="69" t="s">
         <v>7</v>
       </c>
       <c r="O6" s="49" t="s">
@@ -3052,10 +3378,10 @@
       <c r="P6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" s="72" t="s">
+      <c r="Q6" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="71" t="s">
+      <c r="R6" s="69" t="s">
         <v>7</v>
       </c>
       <c r="S6" s="49" t="s">
@@ -3064,16 +3390,16 @@
       <c r="T6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="70" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="71">
+      <c r="C7" s="95"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="69">
         <v>2</v>
       </c>
       <c r="G7" s="54" t="s">
@@ -3082,10 +3408,10 @@
       <c r="H7" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="70">
         <v>4</v>
       </c>
-      <c r="J7" s="71">
+      <c r="J7" s="69">
         <v>1</v>
       </c>
       <c r="K7" s="54" t="s">
@@ -3094,10 +3420,10 @@
       <c r="L7" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="72">
+      <c r="M7" s="70">
         <v>5</v>
       </c>
-      <c r="N7" s="71">
+      <c r="N7" s="69">
         <v>4</v>
       </c>
       <c r="O7" s="54" t="s">
@@ -3106,26 +3432,26 @@
       <c r="P7" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="72">
+      <c r="Q7" s="70">
         <v>5</v>
       </c>
-      <c r="R7" s="71">
+      <c r="R7" s="69">
         <v>5</v>
       </c>
       <c r="S7" s="54" t="s">
         <v>13</v>
       </c>
       <c r="T7" s="49"/>
-      <c r="U7" s="72">
+      <c r="U7" s="70">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="71">
+      <c r="C8" s="95"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="69">
         <v>3</v>
       </c>
       <c r="G8" s="22" t="s">
@@ -3134,55 +3460,55 @@
       <c r="H8" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="72">
-        <v>1</v>
-      </c>
-      <c r="J8" s="71"/>
+      <c r="I8" s="70">
+        <v>1</v>
+      </c>
+      <c r="J8" s="69"/>
       <c r="K8" s="49"/>
       <c r="L8" s="49"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="71"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="69"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="71"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="69"/>
       <c r="S8" s="49"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="70"/>
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="75"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="73"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="95">
+      <c r="C10" s="94">
         <v>42634</v>
       </c>
-      <c r="D10" s="98" t="s">
+      <c r="D10" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="101" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="71" t="s">
+      <c r="E10" s="100">
+        <v>0</v>
+      </c>
+      <c r="F10" s="69" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="49" t="s">
@@ -3191,10 +3517,10 @@
       <c r="H10" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="72" t="s">
+      <c r="I10" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="69" t="s">
         <v>7</v>
       </c>
       <c r="K10" s="49" t="s">
@@ -3203,10 +3529,10 @@
       <c r="L10" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="72" t="s">
+      <c r="M10" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="71" t="s">
+      <c r="N10" s="69" t="s">
         <v>7</v>
       </c>
       <c r="O10" s="49" t="s">
@@ -3215,10 +3541,10 @@
       <c r="P10" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="Q10" s="72" t="s">
+      <c r="Q10" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="69" t="s">
         <v>7</v>
       </c>
       <c r="S10" s="49" t="s">
@@ -3227,84 +3553,84 @@
       <c r="T10" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="U10" s="72" t="s">
+      <c r="U10" s="70" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="96"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="78"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="76"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="96"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="78"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="76"/>
     </row>
     <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="97"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="81"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="79"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C14" s="95">
+      <c r="C14" s="94">
         <v>42641</v>
       </c>
-      <c r="D14" s="98" t="s">
+      <c r="D14" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="101">
+      <c r="E14" s="100">
         <v>5</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="F14" s="69" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="49" t="s">
@@ -3313,10 +3639,10 @@
       <c r="H14" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="72" t="s">
+      <c r="I14" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="69" t="s">
         <v>7</v>
       </c>
       <c r="K14" s="49" t="s">
@@ -3325,10 +3651,10 @@
       <c r="L14" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="72" t="s">
+      <c r="M14" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="71" t="s">
+      <c r="N14" s="69" t="s">
         <v>7</v>
       </c>
       <c r="O14" s="49" t="s">
@@ -3337,10 +3663,10 @@
       <c r="P14" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="Q14" s="72" t="s">
+      <c r="Q14" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="R14" s="71" t="s">
+      <c r="R14" s="69" t="s">
         <v>7</v>
       </c>
       <c r="S14" s="49" t="s">
@@ -3349,15 +3675,15 @@
       <c r="T14" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="U14" s="72" t="s">
+      <c r="U14" s="70" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C15" s="96"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="71">
+      <c r="C15" s="95"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="69">
         <v>3</v>
       </c>
       <c r="G15" s="54" t="s">
@@ -3366,10 +3692,10 @@
       <c r="H15" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="72">
+      <c r="I15" s="70">
         <v>5</v>
       </c>
-      <c r="J15" s="71">
+      <c r="J15" s="69">
         <v>1</v>
       </c>
       <c r="K15" s="54" t="s">
@@ -3378,10 +3704,10 @@
       <c r="L15" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="72">
+      <c r="M15" s="70">
         <v>5</v>
       </c>
-      <c r="N15" s="71">
+      <c r="N15" s="69">
         <v>1</v>
       </c>
       <c r="O15" s="54" t="s">
@@ -3390,33 +3716,33 @@
       <c r="P15" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="72">
+      <c r="Q15" s="70">
         <v>2</v>
       </c>
-      <c r="R15" s="71">
+      <c r="R15" s="69">
         <v>5</v>
       </c>
       <c r="S15" s="54" t="s">
         <v>13</v>
       </c>
       <c r="T15" s="49"/>
-      <c r="U15" s="72">
+      <c r="U15" s="70">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="96"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="71"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="49"/>
       <c r="H16" s="49"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="71"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="69"/>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="71">
+      <c r="M16" s="70"/>
+      <c r="N16" s="69">
         <v>4</v>
       </c>
       <c r="O16" s="22" t="s">
@@ -3425,80 +3751,80 @@
       <c r="P16" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="72">
+      <c r="Q16" s="70">
         <v>3</v>
       </c>
-      <c r="R16" s="71"/>
+      <c r="R16" s="69"/>
       <c r="S16" s="49"/>
       <c r="T16" s="49"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="70"/>
     </row>
     <row r="17" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="97"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="75"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="73"/>
     </row>
     <row r="18" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="104">
+      <c r="B19" s="90">
         <v>2</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="105" t="s">
+      <c r="F19" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="105" t="s">
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="105" t="s">
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="105" t="s">
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="S19" s="106"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="107"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="105"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="95">
+      <c r="C20" s="94">
         <v>42648</v>
       </c>
-      <c r="D20" s="98" t="s">
+      <c r="D20" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="101">
+      <c r="E20" s="100">
         <v>5</v>
       </c>
-      <c r="F20" s="71" t="s">
+      <c r="F20" s="69" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="49" t="s">
@@ -3507,10 +3833,10 @@
       <c r="H20" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="72" t="s">
+      <c r="I20" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="71" t="s">
+      <c r="J20" s="69" t="s">
         <v>7</v>
       </c>
       <c r="K20" s="49" t="s">
@@ -3519,10 +3845,10 @@
       <c r="L20" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="M20" s="72" t="s">
+      <c r="M20" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="N20" s="71" t="s">
+      <c r="N20" s="69" t="s">
         <v>7</v>
       </c>
       <c r="O20" s="49" t="s">
@@ -3531,10 +3857,10 @@
       <c r="P20" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="Q20" s="72" t="s">
+      <c r="Q20" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="71" t="s">
+      <c r="R20" s="69" t="s">
         <v>7</v>
       </c>
       <c r="S20" s="49" t="s">
@@ -3543,16 +3869,16 @@
       <c r="T20" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="U20" s="72" t="s">
+      <c r="U20" s="70" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="71">
+      <c r="C21" s="95"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="69">
         <v>15</v>
       </c>
       <c r="G21" s="22" t="s">
@@ -3561,10 +3887,10 @@
       <c r="H21" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="72">
+      <c r="I21" s="70">
         <v>5</v>
       </c>
-      <c r="J21" s="71">
+      <c r="J21" s="69">
         <v>6</v>
       </c>
       <c r="K21" s="54" t="s">
@@ -3573,16 +3899,16 @@
       <c r="L21" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="M21" s="72">
+      <c r="M21" s="70">
         <v>5</v>
       </c>
-      <c r="N21" s="76"/>
-      <c r="O21" s="77" t="s">
+      <c r="N21" s="74"/>
+      <c r="O21" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="71">
+      <c r="P21" s="75"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="69">
         <v>12</v>
       </c>
       <c r="S21" s="54" t="s">
@@ -3591,30 +3917,30 @@
       <c r="T21" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="U21" s="72">
+      <c r="U21" s="70">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="71"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="49"/>
       <c r="H22" s="49"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="71"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="69"/>
       <c r="K22" s="49"/>
       <c r="L22" s="49"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="77" t="s">
+      <c r="M22" s="70"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="71">
+      <c r="P22" s="75"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="69">
         <v>15</v>
       </c>
       <c r="S22" s="62" t="s">
@@ -3623,45 +3949,45 @@
       <c r="T22" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="U22" s="72">
+      <c r="U22" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="77" t="s">
+      <c r="C23" s="96"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="75"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="73"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C24" s="95">
+      <c r="C24" s="94">
         <v>42655</v>
       </c>
-      <c r="D24" s="98" t="s">
+      <c r="D24" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="101">
+      <c r="E24" s="100">
         <v>5</v>
       </c>
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="69" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="49" t="s">
@@ -3670,10 +3996,10 @@
       <c r="H24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="72" t="s">
+      <c r="I24" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="71" t="s">
+      <c r="J24" s="69" t="s">
         <v>7</v>
       </c>
       <c r="K24" s="49" t="s">
@@ -3682,10 +4008,10 @@
       <c r="L24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="M24" s="72" t="s">
+      <c r="M24" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="N24" s="71" t="s">
+      <c r="N24" s="69" t="s">
         <v>7</v>
       </c>
       <c r="O24" s="49" t="s">
@@ -3694,10 +4020,10 @@
       <c r="P24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="Q24" s="72" t="s">
+      <c r="Q24" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="R24" s="71" t="s">
+      <c r="R24" s="69" t="s">
         <v>7</v>
       </c>
       <c r="S24" s="49" t="s">
@@ -3706,116 +4032,118 @@
       <c r="T24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="U24" s="72" t="s">
+      <c r="U24" s="70" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C25" s="96"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="77" t="s">
+      <c r="C25" s="95"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="77"/>
-      <c r="I25" s="78">
-        <v>0</v>
-      </c>
-      <c r="J25" s="76"/>
-      <c r="K25" s="77" t="s">
+      <c r="H25" s="75"/>
+      <c r="I25" s="76">
+        <v>5</v>
+      </c>
+      <c r="J25" s="74"/>
+      <c r="K25" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="77"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="82">
+      <c r="L25" s="75"/>
+      <c r="M25" s="76">
+        <v>5</v>
+      </c>
+      <c r="N25" s="80">
         <v>10</v>
       </c>
       <c r="O25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="P25" s="83" t="s">
+      <c r="P25" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="Q25" s="84">
+      <c r="Q25" s="82">
         <v>5</v>
       </c>
-      <c r="R25" s="82"/>
+      <c r="R25" s="80"/>
       <c r="S25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="T25" s="83" t="s">
+      <c r="T25" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="U25" s="84">
+      <c r="U25" s="82">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C26" s="96"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="77" t="s">
+      <c r="C26" s="95"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="77"/>
-      <c r="I26" s="78">
-        <v>0</v>
-      </c>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77" t="s">
+      <c r="H26" s="75"/>
+      <c r="I26" s="76">
+        <v>0</v>
+      </c>
+      <c r="J26" s="74"/>
+      <c r="K26" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="L26" s="77"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="83"/>
-      <c r="U26" s="84"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="82"/>
     </row>
     <row r="27" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="97"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="77" t="s">
+      <c r="C27" s="96"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="80"/>
-      <c r="I27" s="81">
-        <v>0</v>
-      </c>
-      <c r="J27" s="79"/>
-      <c r="K27" s="77" t="s">
+      <c r="H27" s="78"/>
+      <c r="I27" s="79">
+        <v>0</v>
+      </c>
+      <c r="J27" s="77"/>
+      <c r="K27" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="80"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="87"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="84"/>
+      <c r="U27" s="85"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C28" s="95">
+      <c r="C28" s="94">
         <v>42662</v>
       </c>
-      <c r="D28" s="98" t="s">
+      <c r="D28" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="101">
+      <c r="E28" s="100">
         <v>5</v>
       </c>
-      <c r="F28" s="71" t="s">
+      <c r="F28" s="69" t="s">
         <v>7</v>
       </c>
       <c r="G28" s="49" t="s">
@@ -3824,10 +4152,10 @@
       <c r="H28" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="72" t="s">
+      <c r="I28" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="J28" s="71" t="s">
+      <c r="J28" s="69" t="s">
         <v>7</v>
       </c>
       <c r="K28" s="49" t="s">
@@ -3836,10 +4164,10 @@
       <c r="L28" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="72" t="s">
+      <c r="M28" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="N28" s="71" t="s">
+      <c r="N28" s="69" t="s">
         <v>7</v>
       </c>
       <c r="O28" s="49" t="s">
@@ -3848,10 +4176,10 @@
       <c r="P28" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="Q28" s="72" t="s">
+      <c r="Q28" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="R28" s="71" t="s">
+      <c r="R28" s="69" t="s">
         <v>7</v>
       </c>
       <c r="S28" s="49" t="s">
@@ -3860,15 +4188,15 @@
       <c r="T28" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="U28" s="72" t="s">
+      <c r="U28" s="70" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C29" s="96"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="71">
+      <c r="C29" s="95"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="69">
         <v>15</v>
       </c>
       <c r="G29" s="22" t="s">
@@ -3877,10 +4205,10 @@
       <c r="H29" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="72">
+      <c r="I29" s="70">
         <v>3</v>
       </c>
-      <c r="J29" s="71">
+      <c r="J29" s="69">
         <v>10</v>
       </c>
       <c r="K29" s="22" t="s">
@@ -3889,629 +4217,773 @@
       <c r="L29" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="M29" s="72">
+      <c r="M29" s="70">
         <v>3</v>
       </c>
-      <c r="N29" s="76"/>
-      <c r="O29" s="77" t="s">
+      <c r="N29" s="74"/>
+      <c r="O29" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="71">
+      <c r="P29" s="75"/>
+      <c r="Q29" s="76">
+        <v>5</v>
+      </c>
+      <c r="R29" s="69">
         <v>5</v>
       </c>
       <c r="S29" s="54" t="s">
         <v>13</v>
       </c>
       <c r="T29" s="49"/>
-      <c r="U29" s="72">
+      <c r="U29" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="96"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="71"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H30" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="72">
+      <c r="I30" s="70">
         <v>2</v>
       </c>
-      <c r="J30" s="71"/>
+      <c r="J30" s="69"/>
       <c r="K30" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L30" s="49"/>
-      <c r="M30" s="72">
+      <c r="M30" s="70">
         <v>2</v>
       </c>
-      <c r="N30" s="76"/>
-      <c r="O30" s="77" t="s">
+      <c r="N30" s="74"/>
+      <c r="O30" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="15">
-        <v>8</v>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="69">
+        <v>10</v>
       </c>
       <c r="S30" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="T30" s="49"/>
-      <c r="U30" s="72">
+        <v>18</v>
+      </c>
+      <c r="T30" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="U30" s="70">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="97"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="77" t="s">
+      <c r="C31" s="96"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="71"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="69"/>
       <c r="S31" s="49" t="s">
         <v>74</v>
       </c>
       <c r="T31" s="49"/>
-      <c r="U31" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C32" s="95">
+      <c r="U31" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C33" s="94">
+        <v>42669</v>
+      </c>
+      <c r="D33" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="100">
+        <v>0</v>
+      </c>
+      <c r="F33" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="N33" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="O33" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="R33" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="S33" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="T33" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="U33" s="89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C34" s="95"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="75"/>
+      <c r="I34" s="76">
+        <v>5</v>
+      </c>
+      <c r="J34" s="74"/>
+      <c r="K34" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="75"/>
+      <c r="M34" s="76">
+        <v>5</v>
+      </c>
+      <c r="N34" s="74"/>
+      <c r="O34" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76">
+        <v>5</v>
+      </c>
+      <c r="R34" s="74"/>
+      <c r="S34" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="T34" s="75"/>
+      <c r="U34" s="76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C35" s="95"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="75"/>
+      <c r="I35" s="76">
+        <v>0</v>
+      </c>
+      <c r="J35" s="74"/>
+      <c r="K35" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="75"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="T35" s="75"/>
+      <c r="U35" s="76"/>
+    </row>
+    <row r="36" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="96"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="78"/>
+      <c r="I36" s="79">
+        <v>0</v>
+      </c>
+      <c r="J36" s="77"/>
+      <c r="K36" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" s="78"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="79"/>
+      <c r="R36" s="77"/>
+      <c r="S36" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="T36" s="78"/>
+      <c r="U36" s="79"/>
+    </row>
+    <row r="37" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C39" s="113">
         <v>42676</v>
       </c>
-      <c r="D32" s="98" t="s">
+      <c r="D39" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="101">
+      <c r="E39" s="119">
         <v>4</v>
       </c>
-      <c r="F32" s="90" t="s">
+      <c r="F39" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="91" t="s">
+      <c r="G39" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="J32" s="90" t="s">
+      <c r="J39" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="M32" s="91" t="s">
+      <c r="K39" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="N32" s="90" t="s">
+      <c r="N39" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="O32" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="P32" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="91" t="s">
+      <c r="O39" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="R32" s="90" t="s">
+      <c r="R39" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="S32" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="T32" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="U32" s="91" t="s">
+      <c r="S39" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="T39" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="U39" s="89" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="C33" s="96"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="67" t="s">
+    <row r="40" spans="2:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="C40" s="114"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="49"/>
+      <c r="I40" s="5">
+        <v>3</v>
+      </c>
+      <c r="J40" s="69"/>
+      <c r="K40" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="L40" s="49"/>
+      <c r="M40" s="70">
+        <v>3</v>
+      </c>
+      <c r="N40" s="80"/>
+      <c r="O40" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="82">
+        <v>3</v>
+      </c>
+      <c r="R40" s="69"/>
+      <c r="S40" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="T40" s="49"/>
+      <c r="U40" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C41" s="114"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="69">
+        <v>14</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="70">
+        <v>1</v>
+      </c>
+      <c r="J41" s="15">
+        <v>8</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="49"/>
+      <c r="M41" s="70">
+        <v>1</v>
+      </c>
+      <c r="N41" s="80">
+        <v>11</v>
+      </c>
+      <c r="O41" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="82">
+        <v>1</v>
+      </c>
+      <c r="R41" s="15">
+        <v>8</v>
+      </c>
+      <c r="S41" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T41" s="49"/>
+      <c r="U41" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="5"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="73"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="113">
+        <v>42683</v>
+      </c>
+      <c r="D43" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="119">
+        <v>4</v>
+      </c>
+      <c r="F43" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="J43" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M43" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="N43" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="O43" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="R43" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="S43" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="T43" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="U43" s="70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="80">
+        <v>11</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="81"/>
+      <c r="I44" s="82">
+        <v>1</v>
+      </c>
+      <c r="J44" s="15">
+        <v>8</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="81"/>
+      <c r="M44" s="82">
+        <v>3</v>
+      </c>
+      <c r="N44" s="80"/>
+      <c r="O44" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P44" s="81"/>
+      <c r="Q44" s="82">
+        <v>1</v>
+      </c>
+      <c r="R44" s="80"/>
+      <c r="S44" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="T44" s="81"/>
+      <c r="U44" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C45" s="114"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="80">
+        <v>14</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="82">
+        <v>2</v>
+      </c>
+      <c r="J45" s="80"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="80">
+        <v>14</v>
+      </c>
+      <c r="O45" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="P45" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q45" s="82">
+        <v>2</v>
+      </c>
+      <c r="R45" s="80"/>
+      <c r="S45" s="81"/>
+      <c r="T45" s="81"/>
+      <c r="U45" s="82"/>
+    </row>
+    <row r="46" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="5"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="H33" s="49"/>
-      <c r="I33" s="5">
+      <c r="H46" s="86"/>
+      <c r="I46" s="123">
+        <v>1</v>
+      </c>
+      <c r="J46" s="122"/>
+      <c r="K46" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="L46" s="86"/>
+      <c r="M46" s="123">
+        <v>1</v>
+      </c>
+      <c r="N46" s="122"/>
+      <c r="O46" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="P46" s="86"/>
+      <c r="Q46" s="123">
+        <v>1</v>
+      </c>
+      <c r="R46" s="122"/>
+      <c r="S46" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="T46" s="86"/>
+      <c r="U46" s="123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C47" s="94">
+        <v>42690</v>
+      </c>
+      <c r="D47" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="100">
+        <v>5</v>
+      </c>
+      <c r="F47" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="N47" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="O47" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="R47" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="S47" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="T47" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="U47" s="89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C48" s="95"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="75"/>
+      <c r="I48" s="76">
+        <v>5</v>
+      </c>
+      <c r="J48" s="69"/>
+      <c r="K48" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="L48" s="49"/>
+      <c r="M48" s="70">
+        <v>1</v>
+      </c>
+      <c r="N48" s="69"/>
+      <c r="O48" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="70">
+        <v>1</v>
+      </c>
+      <c r="R48" s="69"/>
+      <c r="S48" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="T48" s="49"/>
+      <c r="U48" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C49" s="95"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="H49" s="75"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="15">
+        <v>8</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="49"/>
+      <c r="M49" s="70">
+        <v>1</v>
+      </c>
+      <c r="N49" s="17">
+        <v>9</v>
+      </c>
+      <c r="O49" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="70">
+        <v>4</v>
+      </c>
+      <c r="R49" s="80"/>
+      <c r="S49" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="T49" s="81"/>
+      <c r="U49" s="82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="96"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="78"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="L50" s="72"/>
+      <c r="M50" s="73">
         <v>3</v>
       </c>
-      <c r="J33" s="71"/>
-      <c r="K33" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="L33" s="49"/>
-      <c r="M33" s="72">
-        <v>3</v>
-      </c>
-      <c r="N33" s="82"/>
-      <c r="O33" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="84">
-        <v>3</v>
-      </c>
-      <c r="R33" s="71"/>
-      <c r="S33" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="T33" s="49"/>
-      <c r="U33" s="72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C34" s="96"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="71">
-        <v>14</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="72">
-        <v>1</v>
-      </c>
-      <c r="J34" s="71">
-        <v>15</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="L34" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="M34" s="72">
-        <v>1</v>
-      </c>
-      <c r="N34" s="82"/>
-      <c r="O34" s="83" t="s">
-        <v>78</v>
-      </c>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="15">
+      <c r="N50" s="71"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="124">
         <v>8</v>
       </c>
-      <c r="S34" s="22" t="s">
+      <c r="S50" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T34" s="49"/>
-      <c r="U34" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="97"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="74"/>
-      <c r="U35" s="75"/>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C36" s="95">
-        <v>42683</v>
-      </c>
-      <c r="D36" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="101">
-        <v>4</v>
-      </c>
-      <c r="F36" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="I36" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="J36" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="L36" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="M36" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="N36" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="O36" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="P36" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="R36" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="S36" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="T36" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="U36" s="72" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C37" s="96"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="83"/>
-      <c r="I37" s="84">
-        <v>1</v>
-      </c>
-      <c r="J37" s="15">
-        <v>8</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L37" s="83"/>
-      <c r="M37" s="84">
-        <v>3</v>
-      </c>
-      <c r="N37" s="82"/>
-      <c r="O37" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="P37" s="83"/>
-      <c r="Q37" s="84">
-        <v>1</v>
-      </c>
-      <c r="R37" s="82"/>
-      <c r="S37" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="T37" s="83"/>
-      <c r="U37" s="84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C38" s="96"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="82">
-        <v>14</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="84">
+      <c r="T50" s="72"/>
+      <c r="U50" s="73">
         <v>2</v>
       </c>
-      <c r="J38" s="82"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="82">
-        <v>14</v>
-      </c>
-      <c r="O38" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="P38" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q38" s="84">
-        <v>2</v>
-      </c>
-      <c r="R38" s="82"/>
-      <c r="S38" s="83"/>
-      <c r="T38" s="83"/>
-      <c r="U38" s="84"/>
-    </row>
-    <row r="39" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="97"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="H39" s="86"/>
-      <c r="I39" s="87">
-        <v>1</v>
-      </c>
-      <c r="J39" s="85"/>
-      <c r="K39" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="L39" s="86"/>
-      <c r="M39" s="87">
-        <v>1</v>
-      </c>
-      <c r="N39" s="85"/>
-      <c r="O39" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="P39" s="86"/>
-      <c r="Q39" s="87">
-        <v>1</v>
-      </c>
-      <c r="R39" s="85"/>
-      <c r="S39" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="T39" s="86"/>
-      <c r="U39" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C40" s="95">
-        <v>42690</v>
-      </c>
-      <c r="D40" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="101">
-        <v>5</v>
-      </c>
-      <c r="F40" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="I40" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="J40" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="K40" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="L40" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="M40" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="N40" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="O40" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="P40" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="R40" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="S40" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="T40" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="U40" s="72" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C41" s="96"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="H41" s="77"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="L41" s="49"/>
-      <c r="M41" s="72">
-        <v>1</v>
-      </c>
-      <c r="N41" s="71"/>
-      <c r="O41" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="72">
-        <v>1</v>
-      </c>
-      <c r="R41" s="71"/>
-      <c r="S41" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="T41" s="49"/>
-      <c r="U41" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C42" s="96"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="H42" s="77"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="15">
-        <v>8</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="L42" s="49"/>
-      <c r="M42" s="72">
-        <v>1</v>
-      </c>
-      <c r="N42" s="17">
-        <v>9</v>
-      </c>
-      <c r="O42" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="72">
-        <v>4</v>
-      </c>
-      <c r="R42" s="71">
-        <v>15</v>
-      </c>
-      <c r="S42" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="T42" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="U42" s="72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="97"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="H43" s="80"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="L43" s="74"/>
-      <c r="M43" s="75">
-        <v>3</v>
-      </c>
-      <c r="N43" s="73"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="75"/>
-      <c r="R43" s="73"/>
-      <c r="S43" s="74"/>
-      <c r="T43" s="74"/>
-      <c r="U43" s="75"/>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="5"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="F5:I5"/>
+  <mergeCells count="38">
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
@@ -4522,6 +4994,34 @@
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="E47:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc_SCRUM/LesSprints.xlsx
+++ b/Doc_SCRUM/LesSprints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3900" windowWidth="25215" windowHeight="8325" activeTab="4"/>
+    <workbookView xWindow="-180" yWindow="-240" windowWidth="25215" windowHeight="8325" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tout" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,12 @@
     <sheet name="Feuil1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="83">
   <si>
     <t xml:space="preserve">Story Name </t>
   </si>
@@ -990,6 +991,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1035,21 +1054,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1077,9 +1081,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2180,11 +2181,11 @@
       <c r="B36" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="91" t="s">
+      <c r="C36" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="92"/>
-      <c r="E36" s="93"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="103"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -3037,7 +3038,7 @@
   <sheetData>
     <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="107">
+      <c r="C3" s="92">
         <v>42676</v>
       </c>
       <c r="D3" s="87"/>
@@ -3046,18 +3047,18 @@
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="69"/>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="93" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="94" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="49" t="s">
@@ -3066,12 +3067,12 @@
       <c r="E5" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="95" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="94" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="49" t="s">
@@ -3080,12 +3081,12 @@
       <c r="E6" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="95" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="94" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="49" t="s">
@@ -3094,12 +3095,12 @@
       <c r="E7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="F7" s="95" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="96" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="72" t="s">
@@ -3108,13 +3109,13 @@
       <c r="E8" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="112" t="s">
+      <c r="F8" s="97" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="107">
+      <c r="C10" s="92">
         <v>42683</v>
       </c>
       <c r="D10" s="87"/>
@@ -3123,18 +3124,18 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="69"/>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="108" t="s">
+      <c r="F11" s="93" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="94" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="49" t="s">
@@ -3143,10 +3144,10 @@
       <c r="E12" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="95"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="94" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="49" t="s">
@@ -3155,10 +3156,10 @@
       <c r="E13" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="110"/>
+      <c r="F13" s="95"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="94" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="49" t="s">
@@ -3167,12 +3168,12 @@
       <c r="E14" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="110" t="s">
+      <c r="F14" s="95" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="96" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="72" t="s">
@@ -3181,13 +3182,13 @@
       <c r="E15" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="112" t="s">
+      <c r="F15" s="97" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="107">
+      <c r="C17" s="92">
         <v>42690</v>
       </c>
       <c r="D17" s="87"/>
@@ -3196,18 +3197,18 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="69"/>
-      <c r="D18" s="106" t="s">
+      <c r="D18" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="106" t="s">
+      <c r="E18" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="108" t="s">
+      <c r="F18" s="93" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="94" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="49" t="s">
@@ -3216,10 +3217,10 @@
       <c r="E19" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="110"/>
+      <c r="F19" s="95"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="94" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="49" t="s">
@@ -3228,10 +3229,10 @@
       <c r="E20" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="110"/>
+      <c r="F20" s="95"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="109" t="s">
+      <c r="C21" s="94" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="49" t="s">
@@ -3240,12 +3241,12 @@
       <c r="E21" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="110" t="s">
+      <c r="F21" s="95" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="96" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="72" t="s">
@@ -3254,7 +3255,7 @@
       <c r="E22" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="112"/>
+      <c r="F22" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3263,10 +3264,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U50"/>
+  <dimension ref="B3:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D33" sqref="D36"/>
+      <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3287,7 +3288,7 @@
     <col min="16" max="16" width="7.85546875" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
@@ -3309,40 +3310,40 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="103" t="s">
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="103" t="s">
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="103" t="s">
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="105"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="115"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="94">
+      <c r="C6" s="104">
         <v>42627</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="110">
         <v>5</v>
       </c>
       <c r="F6" s="69" t="s">
@@ -3396,9 +3397,9 @@
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="101"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="111"/>
       <c r="F7" s="69">
         <v>2</v>
       </c>
@@ -3448,9 +3449,9 @@
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="101"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="111"/>
       <c r="F8" s="69">
         <v>3</v>
       </c>
@@ -3478,9 +3479,9 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="102"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="71"/>
       <c r="G9" s="72"/>
       <c r="H9" s="72"/>
@@ -3499,13 +3500,13 @@
       <c r="U9" s="73"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="94">
+      <c r="C10" s="104">
         <v>42634</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="100">
+      <c r="E10" s="110">
         <v>0</v>
       </c>
       <c r="F10" s="69" t="s">
@@ -3558,9 +3559,9 @@
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="95"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="101"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="74"/>
       <c r="G11" s="75"/>
       <c r="H11" s="75"/>
@@ -3579,9 +3580,9 @@
       <c r="U11" s="76"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="95"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="101"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="111"/>
       <c r="F12" s="74"/>
       <c r="G12" s="75"/>
       <c r="H12" s="75"/>
@@ -3600,9 +3601,9 @@
       <c r="U12" s="76"/>
     </row>
     <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="96"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="102"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="112"/>
       <c r="F13" s="77"/>
       <c r="G13" s="78"/>
       <c r="H13" s="78"/>
@@ -3621,13 +3622,13 @@
       <c r="U13" s="79"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C14" s="94">
+      <c r="C14" s="104">
         <v>42641</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="100">
+      <c r="E14" s="110">
         <v>5</v>
       </c>
       <c r="F14" s="69" t="s">
@@ -3680,9 +3681,9 @@
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C15" s="95"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="101"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="69">
         <v>3</v>
       </c>
@@ -3731,9 +3732,9 @@
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="95"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="101"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="111"/>
       <c r="F16" s="69"/>
       <c r="G16" s="49"/>
       <c r="H16" s="49"/>
@@ -3760,9 +3761,9 @@
       <c r="U16" s="70"/>
     </row>
     <row r="17" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="96"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="102"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="112"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
       <c r="H17" s="72"/>
@@ -3788,40 +3789,40 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="103" t="s">
+      <c r="F19" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="103" t="s">
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="103" t="s">
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="103" t="s">
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="105"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="114"/>
+      <c r="U19" s="115"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="94">
+      <c r="C20" s="104">
         <v>42648</v>
       </c>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="100">
+      <c r="E20" s="110">
         <v>5</v>
       </c>
       <c r="F20" s="69" t="s">
@@ -3875,9 +3876,9 @@
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="101"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="111"/>
       <c r="F21" s="69">
         <v>15</v>
       </c>
@@ -3923,9 +3924,9 @@
     </row>
     <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="101"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="111"/>
       <c r="F22" s="69"/>
       <c r="G22" s="49"/>
       <c r="H22" s="49"/>
@@ -3955,9 +3956,9 @@
     </row>
     <row r="23" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="102"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="112"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
       <c r="H23" s="72"/>
@@ -3978,13 +3979,13 @@
       <c r="U23" s="73"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C24" s="94">
+      <c r="C24" s="104">
         <v>42655</v>
       </c>
-      <c r="D24" s="97" t="s">
+      <c r="D24" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="100">
+      <c r="E24" s="110">
         <v>5</v>
       </c>
       <c r="F24" s="69" t="s">
@@ -4037,9 +4038,9 @@
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C25" s="95"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="101"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="111"/>
       <c r="F25" s="74"/>
       <c r="G25" s="75" t="s">
         <v>66</v>
@@ -4080,9 +4081,9 @@
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C26" s="95"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="101"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="111"/>
       <c r="F26" s="74"/>
       <c r="G26" s="75" t="s">
         <v>66</v>
@@ -4107,9 +4108,9 @@
       <c r="U26" s="82"/>
     </row>
     <row r="27" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="96"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="102"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="112"/>
       <c r="F27" s="77"/>
       <c r="G27" s="75" t="s">
         <v>66</v>
@@ -4134,13 +4135,13 @@
       <c r="U27" s="85"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C28" s="94">
+      <c r="C28" s="104">
         <v>42662</v>
       </c>
-      <c r="D28" s="97" t="s">
+      <c r="D28" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="100">
+      <c r="E28" s="110">
         <v>5</v>
       </c>
       <c r="F28" s="69" t="s">
@@ -4193,9 +4194,9 @@
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C29" s="95"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="101"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="111"/>
       <c r="F29" s="69">
         <v>15</v>
       </c>
@@ -4240,9 +4241,9 @@
       </c>
     </row>
     <row r="30" spans="2:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="95"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="101"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="111"/>
       <c r="F30" s="69"/>
       <c r="G30" s="67" t="s">
         <v>76</v>
@@ -4281,9 +4282,9 @@
       </c>
     </row>
     <row r="31" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="96"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="102"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="112"/>
       <c r="F31" s="71"/>
       <c r="G31" s="72"/>
       <c r="H31" s="72"/>
@@ -4309,13 +4310,13 @@
     </row>
     <row r="32" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C33" s="94">
+      <c r="C33" s="104">
         <v>42669</v>
       </c>
-      <c r="D33" s="97" t="s">
+      <c r="D33" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="100">
+      <c r="E33" s="110">
         <v>0</v>
       </c>
       <c r="F33" s="88" t="s">
@@ -4368,9 +4369,9 @@
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C34" s="95"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="101"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="111"/>
       <c r="F34" s="74"/>
       <c r="G34" s="75" t="s">
         <v>66</v>
@@ -4405,9 +4406,9 @@
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C35" s="95"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="101"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="111"/>
       <c r="F35" s="74"/>
       <c r="G35" s="75" t="s">
         <v>66</v>
@@ -4436,9 +4437,9 @@
       <c r="U35" s="76"/>
     </row>
     <row r="36" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="96"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="102"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="112"/>
       <c r="F36" s="77"/>
       <c r="G36" s="78" t="s">
         <v>66</v>
@@ -4473,13 +4474,13 @@
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C39" s="113">
+      <c r="C39" s="116">
         <v>42676</v>
       </c>
-      <c r="D39" s="116" t="s">
+      <c r="D39" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="119">
+      <c r="E39" s="122">
         <v>4</v>
       </c>
       <c r="F39" s="88" t="s">
@@ -4532,9 +4533,9 @@
       </c>
     </row>
     <row r="40" spans="2:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="C40" s="114"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="120"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="123"/>
       <c r="F40" s="4"/>
       <c r="G40" s="67" t="s">
         <v>76</v>
@@ -4569,9 +4570,9 @@
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C41" s="114"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="120"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="123"/>
       <c r="F41" s="69">
         <v>14</v>
       </c>
@@ -4617,9 +4618,9 @@
     </row>
     <row r="42" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="121"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="124"/>
       <c r="F42" s="71"/>
       <c r="G42" s="72"/>
       <c r="H42" s="72"/>
@@ -4639,13 +4640,13 @@
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
-      <c r="C43" s="113">
+      <c r="C43" s="116">
         <v>42683</v>
       </c>
-      <c r="D43" s="116" t="s">
+      <c r="D43" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="119">
+      <c r="E43" s="122">
         <v>4</v>
       </c>
       <c r="F43" s="69" t="s">
@@ -4699,9 +4700,9 @@
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="120"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="123"/>
       <c r="F44" s="80">
         <v>11</v>
       </c>
@@ -4740,9 +4741,9 @@
       </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C45" s="114"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="120"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="123"/>
       <c r="F45" s="80">
         <v>14</v>
       </c>
@@ -4778,50 +4779,50 @@
     </row>
     <row r="46" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="122"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="123"/>
+      <c r="F46" s="98"/>
       <c r="G46" s="86" t="s">
         <v>77</v>
       </c>
       <c r="H46" s="86"/>
-      <c r="I46" s="123">
-        <v>1</v>
-      </c>
-      <c r="J46" s="122"/>
+      <c r="I46" s="99">
+        <v>1</v>
+      </c>
+      <c r="J46" s="98"/>
       <c r="K46" s="86" t="s">
         <v>77</v>
       </c>
       <c r="L46" s="86"/>
-      <c r="M46" s="123">
-        <v>1</v>
-      </c>
-      <c r="N46" s="122"/>
+      <c r="M46" s="99">
+        <v>1</v>
+      </c>
+      <c r="N46" s="98"/>
       <c r="O46" s="86" t="s">
         <v>77</v>
       </c>
       <c r="P46" s="86"/>
-      <c r="Q46" s="123">
-        <v>1</v>
-      </c>
-      <c r="R46" s="122"/>
+      <c r="Q46" s="99">
+        <v>1</v>
+      </c>
+      <c r="R46" s="98"/>
       <c r="S46" s="86" t="s">
         <v>77</v>
       </c>
       <c r="T46" s="86"/>
-      <c r="U46" s="123">
+      <c r="U46" s="99">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C47" s="94">
+      <c r="C47" s="104">
         <v>42690</v>
       </c>
-      <c r="D47" s="97" t="s">
+      <c r="D47" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="100">
+      <c r="E47" s="110">
         <v>5</v>
       </c>
       <c r="F47" s="88" t="s">
@@ -4874,9 +4875,9 @@
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C48" s="95"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="101"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="74"/>
       <c r="G48" s="75" t="s">
         <v>69</v>
@@ -4911,9 +4912,9 @@
       </c>
     </row>
     <row r="49" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C49" s="95"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="101"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="111"/>
       <c r="F49" s="74"/>
       <c r="G49" s="75" t="s">
         <v>69</v>
@@ -4946,13 +4947,13 @@
       </c>
       <c r="T49" s="81"/>
       <c r="U49" s="82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="96"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="102"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="112"/>
       <c r="F50" s="77"/>
       <c r="G50" s="78" t="s">
         <v>69</v>
@@ -4971,7 +4972,7 @@
       <c r="O50" s="72"/>
       <c r="P50" s="72"/>
       <c r="Q50" s="73"/>
-      <c r="R50" s="124">
+      <c r="R50" s="100">
         <v>8</v>
       </c>
       <c r="S50" s="29" t="s">
@@ -4982,8 +4983,60 @@
         <v>2</v>
       </c>
     </row>
+    <row r="51" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="77"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="17">
+        <v>9</v>
+      </c>
+      <c r="S51" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="T51" s="72"/>
+      <c r="U51" s="73">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="F5:I5"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
@@ -4994,34 +5047,6 @@
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="E47:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc_SCRUM/LesSprints.xlsx
+++ b/Doc_SCRUM/LesSprints.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="95">
   <si>
     <t xml:space="preserve">Story Name </t>
   </si>
@@ -170,9 +170,6 @@
     <t>absent ( Dilan) 5</t>
   </si>
   <si>
-    <t>Sprint 2.5</t>
-  </si>
-  <si>
     <t>ab</t>
   </si>
   <si>
@@ -300,6 +297,12 @@
   </si>
   <si>
     <t>Imprévu</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>victoir Prématuré: Toutes les cases(non Bombe) ne sont dévoilées</t>
   </si>
 </sst>
 </file>
@@ -1083,6 +1086,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1092,13 +1120,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1110,13 +1147,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1146,40 +1183,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1481,11 +1484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E17" sqref="E17"/>
+      <selection pane="topRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,9 +1500,10 @@
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
@@ -1513,10 +1517,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="G1" s="18">
         <v>42627</v>
@@ -1554,24 +1558,27 @@
       <c r="R1" s="18">
         <v>42704</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="130">
-        <v>1</v>
-      </c>
-      <c r="B2" s="130" t="s">
+      <c r="S1" s="50">
+        <v>42711</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="106">
+        <v>1</v>
+      </c>
+      <c r="B2" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="130" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="130">
+      <c r="D2" s="106" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="106">
         <v>10</v>
       </c>
-      <c r="F2" s="130">
+      <c r="F2" s="106">
         <v>10</v>
       </c>
       <c r="G2" s="47">
@@ -1594,24 +1601,25 @@
       <c r="P2" s="47"/>
       <c r="Q2" s="47"/>
       <c r="R2" s="47"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="129">
+      <c r="S2" s="112"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="105">
         <v>2</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="129">
+      <c r="E3" s="105">
         <v>10</v>
       </c>
-      <c r="F3" s="129">
+      <c r="F3" s="105">
         <v>5</v>
       </c>
       <c r="G3" s="42">
@@ -1634,24 +1642,25 @@
       <c r="P3" s="42"/>
       <c r="Q3" s="42"/>
       <c r="R3" s="42"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="130">
+      <c r="S3" s="105"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="106">
         <v>3</v>
       </c>
-      <c r="B4" s="130" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="133" t="s">
+      <c r="B4" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="130">
-        <v>5</v>
-      </c>
-      <c r="F4" s="130">
+      <c r="E4" s="106">
+        <v>5</v>
+      </c>
+      <c r="F4" s="106">
         <v>5</v>
       </c>
       <c r="G4" s="47">
@@ -1674,24 +1683,25 @@
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
       <c r="R4" s="47"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="129">
+      <c r="S4" s="112"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="105">
         <v>4</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="129">
+      <c r="E5" s="105">
         <v>10</v>
       </c>
-      <c r="F5" s="129">
+      <c r="F5" s="105">
         <v>10</v>
       </c>
       <c r="G5" s="42">
@@ -1714,24 +1724,25 @@
       <c r="P5" s="42"/>
       <c r="Q5" s="42"/>
       <c r="R5" s="42"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="130">
-        <v>5</v>
-      </c>
-      <c r="B6" s="130" t="s">
+      <c r="S5" s="105"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="106">
+        <v>5</v>
+      </c>
+      <c r="B6" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="130">
+      <c r="E6" s="106">
         <v>3</v>
       </c>
-      <c r="F6" s="130">
+      <c r="F6" s="106">
         <v>10</v>
       </c>
       <c r="G6" s="47">
@@ -1756,24 +1767,25 @@
       <c r="P6" s="47"/>
       <c r="Q6" s="47"/>
       <c r="R6" s="47"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="129">
+      <c r="S6" s="112"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="105">
         <v>6</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="132" t="s">
+      <c r="D7" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="129">
-        <v>1</v>
-      </c>
-      <c r="F7" s="129"/>
+      <c r="E7" s="105">
+        <v>1</v>
+      </c>
+      <c r="F7" s="105"/>
       <c r="G7" s="42"/>
       <c r="H7" s="66" t="s">
         <v>29</v>
@@ -1792,24 +1804,27 @@
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="42"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="130">
+      <c r="S7" s="105"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="106">
         <v>7</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="130" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="130">
-        <v>1</v>
-      </c>
-      <c r="F8" s="130"/>
+      <c r="D8" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="106">
+        <v>1</v>
+      </c>
+      <c r="F8" s="106">
+        <v>15</v>
+      </c>
       <c r="G8" s="47"/>
       <c r="H8" s="66" t="s">
         <v>29</v>
@@ -1827,25 +1842,30 @@
       <c r="Q8" s="47">
         <v>5</v>
       </c>
-      <c r="R8" s="47"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="129">
+      <c r="R8" s="47">
+        <v>5</v>
+      </c>
+      <c r="S8" s="112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="105">
         <v>8</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="129">
+      <c r="D9" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="105">
         <v>2</v>
       </c>
-      <c r="F9" s="129">
+      <c r="F9" s="105">
         <v>5</v>
       </c>
       <c r="G9" s="42"/>
@@ -1870,24 +1890,27 @@
       </c>
       <c r="Q9" s="42"/>
       <c r="R9" s="42"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="130">
+      <c r="S9" s="105"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="106">
         <v>9</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="130" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="130">
+      <c r="D10" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="106">
         <v>8</v>
       </c>
-      <c r="F10" s="130"/>
+      <c r="F10" s="106">
+        <v>15</v>
+      </c>
       <c r="G10" s="47"/>
       <c r="H10" s="66" t="s">
         <v>29</v>
@@ -1905,25 +1928,30 @@
       <c r="Q10" s="47">
         <v>5</v>
       </c>
-      <c r="R10" s="47"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="129">
+      <c r="R10" s="112">
+        <v>5</v>
+      </c>
+      <c r="S10" s="112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="105">
         <v>10</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="129" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="129">
+      <c r="D11" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="105">
         <v>10</v>
       </c>
-      <c r="F11" s="129">
+      <c r="F11" s="105">
         <v>15</v>
       </c>
       <c r="G11" s="42"/>
@@ -1948,24 +1976,25 @@
       <c r="P11" s="42"/>
       <c r="Q11" s="42"/>
       <c r="R11" s="42"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="130">
+      <c r="S11" s="105"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="106">
         <v>11</v>
       </c>
-      <c r="B12" s="130" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="133" t="s">
+      <c r="B12" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="130" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="130">
+      <c r="D12" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="106">
         <v>10</v>
       </c>
-      <c r="F12" s="130">
+      <c r="F12" s="106">
         <v>10</v>
       </c>
       <c r="G12" s="47"/>
@@ -1990,24 +2019,25 @@
       </c>
       <c r="Q12" s="47"/>
       <c r="R12" s="47"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="129">
+      <c r="S12" s="112"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="105">
         <v>12</v>
       </c>
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="129">
-        <v>1</v>
-      </c>
-      <c r="F13" s="129">
+      <c r="E13" s="105">
+        <v>1</v>
+      </c>
+      <c r="F13" s="105">
         <v>3</v>
       </c>
       <c r="G13" s="42"/>
@@ -2028,271 +2058,293 @@
       <c r="P13" s="42"/>
       <c r="Q13" s="42"/>
       <c r="R13" s="42"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="130">
+      <c r="S13" s="105"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="106">
         <v>14</v>
       </c>
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="130" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="130">
+      <c r="D14" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="106">
         <v>3</v>
       </c>
-      <c r="F14" s="130">
-        <v>5</v>
-      </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="131" t="s">
+      <c r="F14" s="106">
+        <v>5</v>
+      </c>
+      <c r="G14" s="106"/>
+      <c r="H14" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="131" t="s">
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="N14" s="130">
-        <v>1</v>
-      </c>
-      <c r="O14" s="130">
+      <c r="N14" s="106">
+        <v>1</v>
+      </c>
+      <c r="O14" s="106">
         <v>2</v>
       </c>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="130"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="129">
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="112"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="105">
         <v>15</v>
       </c>
-      <c r="B15" s="129" t="s">
+      <c r="B15" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="129" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="129">
+      <c r="D15" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="105">
         <v>2</v>
       </c>
-      <c r="F15" s="129">
-        <v>5</v>
-      </c>
-      <c r="G15" s="129"/>
-      <c r="H15" s="131" t="s">
+      <c r="F15" s="105">
+        <v>5</v>
+      </c>
+      <c r="G15" s="105"/>
+      <c r="H15" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129">
-        <v>5</v>
-      </c>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129">
+      <c r="I15" s="105"/>
+      <c r="J15" s="105">
+        <v>5</v>
+      </c>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105">
         <v>3</v>
       </c>
-      <c r="M15" s="131" t="s">
+      <c r="M15" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="130">
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="106">
         <v>16</v>
       </c>
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="130" t="s">
+      <c r="D16" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="130">
-        <v>1</v>
-      </c>
-      <c r="F16" s="130">
+      <c r="E16" s="106">
+        <v>1</v>
+      </c>
+      <c r="F16" s="106">
         <v>2</v>
       </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="131" t="s">
+      <c r="G16" s="106"/>
+      <c r="H16" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130">
+      <c r="I16" s="106"/>
+      <c r="J16" s="106">
         <v>2</v>
       </c>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="131" t="s">
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="130"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="112"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="129">
+      <c r="A17" s="105">
         <v>17</v>
       </c>
-      <c r="B17" s="129" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="132" t="s">
+      <c r="B17" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="129" t="s">
+      <c r="D17" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="129">
-        <v>1</v>
-      </c>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="131" t="s">
+      <c r="E17" s="105">
+        <v>1</v>
+      </c>
+      <c r="F17" s="105">
+        <v>15</v>
+      </c>
+      <c r="G17" s="105"/>
+      <c r="H17" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="131" t="s">
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129">
-        <v>5</v>
-      </c>
-      <c r="R17" s="129"/>
-      <c r="S17" s="128"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105">
+        <v>5</v>
+      </c>
+      <c r="R17" s="105">
+        <v>5</v>
+      </c>
+      <c r="S17" s="105">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="131" t="s">
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="131" t="s">
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="130"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="130"/>
-      <c r="R18" s="130"/>
-      <c r="S18" s="128"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="112"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="129">
+      <c r="A19" s="105">
         <v>20</v>
       </c>
-      <c r="B19" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="131" t="s">
+      <c r="B19" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="131" t="s">
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="128"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105">
+        <v>3</v>
+      </c>
+      <c r="P19" s="105">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="130">
+      <c r="A20" s="106">
         <v>21</v>
       </c>
-      <c r="B20" s="130" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="133"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="131" t="s">
+      <c r="B20" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="109"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130">
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106">
         <v>2</v>
       </c>
-      <c r="M20" s="131" t="s">
+      <c r="M20" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="N20" s="130">
+      <c r="N20" s="106">
         <v>3</v>
       </c>
-      <c r="O20" s="130">
-        <v>1</v>
-      </c>
-      <c r="P20" s="130">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="130"/>
-      <c r="R20" s="130"/>
+      <c r="O20" s="106">
+        <v>1</v>
+      </c>
+      <c r="P20" s="106">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="112"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="129"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="129"/>
-      <c r="O21" s="129"/>
-      <c r="P21" s="129"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="129"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="105"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f>SUM(E2:E17)</f>
+        <v>78</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -2345,7 +2397,7 @@
       </c>
       <c r="C30" s="5">
         <f>SUM(F2:F14)</f>
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>29</v>
@@ -2456,11 +2508,11 @@
       <c r="B35" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="91" t="s">
+      <c r="C35" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="92"/>
-      <c r="E35" s="93"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="118"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -2474,6 +2526,148 @@
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="10"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F38" s="112">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <f>SUM(G2:S2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F39" s="105">
+        <v>5</v>
+      </c>
+      <c r="G39" s="104">
+        <f t="shared" ref="G39:G53" si="0">SUM(G3:S3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F40" s="112">
+        <v>5</v>
+      </c>
+      <c r="G40" s="104">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F41" s="105">
+        <v>10</v>
+      </c>
+      <c r="G41" s="104">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F42" s="112">
+        <v>10</v>
+      </c>
+      <c r="G42" s="104">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F43" s="105"/>
+      <c r="G43" s="104">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F44" s="112">
+        <v>15</v>
+      </c>
+      <c r="G44" s="104">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F45" s="105">
+        <v>5</v>
+      </c>
+      <c r="G45" s="104">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F46" s="112">
+        <v>15</v>
+      </c>
+      <c r="G46" s="104">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F47" s="105">
+        <v>15</v>
+      </c>
+      <c r="G47" s="104">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F48" s="112">
+        <v>10</v>
+      </c>
+      <c r="G48" s="104">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F49" s="105">
+        <v>3</v>
+      </c>
+      <c r="G49" s="104">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F50" s="112">
+        <v>5</v>
+      </c>
+      <c r="G50" s="104">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F51" s="105">
+        <v>5</v>
+      </c>
+      <c r="G51" s="104">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F52" s="112">
+        <v>2</v>
+      </c>
+      <c r="G52" s="104">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F53" s="105">
+        <v>15</v>
+      </c>
+      <c r="G53" s="104">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2563,7 +2757,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="23">
         <v>1000</v>
@@ -3045,16 +3239,16 @@
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
         <v>67</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>68</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>69</v>
-      </c>
-      <c r="G35" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3065,10 +3259,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3189,7 +3383,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="47" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
@@ -3216,80 +3410,30 @@
         <v>39</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E17" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="47" t="s">
         <v>51</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
+      <c r="C18" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>53</v>
+      </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
-      <c r="C21" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3298,10 +3442,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F29"/>
+  <dimension ref="C2:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3323,10 +3467,10 @@
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="60"/>
       <c r="D4" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="82" t="s">
         <v>55</v>
-      </c>
-      <c r="E4" s="82" t="s">
-        <v>56</v>
       </c>
       <c r="F4" s="84" t="s">
         <v>39</v>
@@ -3337,13 +3481,13 @@
         <v>38</v>
       </c>
       <c r="D5" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="86" t="s">
         <v>58</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="86" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -3357,7 +3501,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -3371,7 +3515,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3379,13 +3523,13 @@
         <v>17</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3400,10 +3544,10 @@
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="60"/>
       <c r="D11" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="82" t="s">
         <v>55</v>
-      </c>
-      <c r="E11" s="82" t="s">
-        <v>56</v>
       </c>
       <c r="F11" s="84" t="s">
         <v>39</v>
@@ -3414,10 +3558,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="86"/>
     </row>
@@ -3429,7 +3573,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="86"/>
     </row>
@@ -3444,7 +3588,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3452,13 +3596,13 @@
         <v>17</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3473,10 +3617,10 @@
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="60"/>
       <c r="D18" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="82" t="s">
         <v>55</v>
-      </c>
-      <c r="E18" s="82" t="s">
-        <v>56</v>
       </c>
       <c r="F18" s="84" t="s">
         <v>39</v>
@@ -3499,10 +3643,10 @@
         <v>31</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="86"/>
     </row>
@@ -3517,7 +3661,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3525,10 +3669,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" s="88"/>
     </row>
@@ -3544,10 +3688,10 @@
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="60"/>
       <c r="D25" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="82" t="s">
         <v>55</v>
-      </c>
-      <c r="E25" s="82" t="s">
-        <v>56</v>
       </c>
       <c r="F25" s="84" t="s">
         <v>39</v>
@@ -3557,11 +3701,11 @@
       <c r="C26" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="42" t="s">
-        <v>81</v>
+      <c r="E26" s="105" t="s">
+        <v>80</v>
       </c>
       <c r="F26" s="86"/>
     </row>
@@ -3569,11 +3713,11 @@
       <c r="C27" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>82</v>
+      <c r="D27" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="105" t="s">
+        <v>81</v>
       </c>
       <c r="F27" s="86"/>
     </row>
@@ -3581,10 +3725,10 @@
       <c r="C28" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="105" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="86"/>
@@ -3593,13 +3737,155 @@
       <c r="C29" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="42" t="s">
+      <c r="D29" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="63" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="88"/>
+    </row>
+    <row r="30" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="83">
+        <v>42704</v>
+      </c>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="80"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="60"/>
+      <c r="D32" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="86"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="86"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="86"/>
+    </row>
+    <row r="36" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="88"/>
+    </row>
+    <row r="37" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="83">
+        <v>42711</v>
+      </c>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="80"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="60"/>
+      <c r="D39" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="86"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="86"/>
+    </row>
+    <row r="42" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C42" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="86" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="86" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3608,10 +3894,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U58"/>
+  <dimension ref="B3:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V54" sqref="V54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3631,7 +3917,7 @@
     <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
@@ -3654,40 +3940,40 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="112" t="s">
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="112" t="s">
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="112" t="s">
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="114"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="121"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="94">
+      <c r="C6" s="128">
         <v>42627</v>
       </c>
-      <c r="D6" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="100">
+      <c r="D6" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="122">
         <v>5</v>
       </c>
       <c r="F6" s="60" t="s">
@@ -3700,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J6" s="60" t="s">
         <v>6</v>
@@ -3712,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" s="60" t="s">
         <v>6</v>
@@ -3724,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R6" s="60" t="s">
         <v>6</v>
@@ -3736,14 +4022,14 @@
         <v>1</v>
       </c>
       <c r="U6" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="101"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="123"/>
       <c r="F7" s="60">
         <v>2</v>
       </c>
@@ -3793,9 +4079,9 @@
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="101"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="123"/>
       <c r="F8" s="60">
         <v>3</v>
       </c>
@@ -3823,9 +4109,9 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="102"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="62"/>
       <c r="G9" s="63"/>
       <c r="H9" s="63"/>
@@ -3844,13 +4130,13 @@
       <c r="U9" s="64"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="94">
+      <c r="C10" s="128">
         <v>42634</v>
       </c>
-      <c r="D10" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="100">
+      <c r="D10" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="122">
         <v>0</v>
       </c>
       <c r="F10" s="60" t="s">
@@ -3863,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J10" s="60" t="s">
         <v>6</v>
@@ -3875,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N10" s="60" t="s">
         <v>6</v>
@@ -3887,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R10" s="60" t="s">
         <v>6</v>
@@ -3899,13 +4185,13 @@
         <v>1</v>
       </c>
       <c r="U10" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="95"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="101"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="65"/>
       <c r="G11" s="66"/>
       <c r="H11" s="66"/>
@@ -3924,9 +4210,9 @@
       <c r="U11" s="67"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="95"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="101"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="65"/>
       <c r="G12" s="66"/>
       <c r="H12" s="66"/>
@@ -3945,9 +4231,9 @@
       <c r="U12" s="67"/>
     </row>
     <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="96"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="102"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="68"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
@@ -3966,13 +4252,13 @@
       <c r="U13" s="70"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C14" s="94">
+      <c r="C14" s="128">
         <v>42641</v>
       </c>
-      <c r="D14" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="100">
+      <c r="D14" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="122">
         <v>5</v>
       </c>
       <c r="F14" s="60" t="s">
@@ -3985,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J14" s="60" t="s">
         <v>6</v>
@@ -3997,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N14" s="60" t="s">
         <v>6</v>
@@ -4009,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R14" s="60" t="s">
         <v>6</v>
@@ -4021,13 +4307,13 @@
         <v>1</v>
       </c>
       <c r="U14" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C15" s="95"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="101"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="60">
         <v>3</v>
       </c>
@@ -4076,9 +4362,9 @@
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="95"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="101"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="60"/>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
@@ -4105,9 +4391,9 @@
       <c r="U16" s="61"/>
     </row>
     <row r="17" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="96"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="102"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="62"/>
       <c r="G17" s="63"/>
       <c r="H17" s="63"/>
@@ -4133,40 +4419,40 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="112" t="s">
+      <c r="F19" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="112" t="s">
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="112" t="s">
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="113"/>
-      <c r="P19" s="113"/>
-      <c r="Q19" s="114"/>
-      <c r="R19" s="112" t="s">
+      <c r="O19" s="120"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="121"/>
+      <c r="R19" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="S19" s="113"/>
-      <c r="T19" s="113"/>
-      <c r="U19" s="114"/>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="121"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="94">
+      <c r="C20" s="128">
         <v>42648</v>
       </c>
-      <c r="D20" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="100">
+      <c r="D20" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="122">
         <v>5</v>
       </c>
       <c r="F20" s="60" t="s">
@@ -4179,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J20" s="60" t="s">
         <v>6</v>
@@ -4191,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N20" s="60" t="s">
         <v>6</v>
@@ -4203,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R20" s="60" t="s">
         <v>6</v>
@@ -4215,14 +4501,14 @@
         <v>1</v>
       </c>
       <c r="U20" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="101"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="123"/>
       <c r="F21" s="60">
         <v>15</v>
       </c>
@@ -4239,17 +4525,17 @@
         <v>6</v>
       </c>
       <c r="K21" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="42" t="s">
         <v>64</v>
-      </c>
-      <c r="L21" s="42" t="s">
-        <v>65</v>
       </c>
       <c r="M21" s="61">
         <v>5</v>
       </c>
       <c r="N21" s="65"/>
       <c r="O21" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P21" s="66"/>
       <c r="Q21" s="67"/>
@@ -4268,9 +4554,9 @@
     </row>
     <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="101"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="123"/>
       <c r="F22" s="60"/>
       <c r="G22" s="42"/>
       <c r="H22" s="42"/>
@@ -4281,7 +4567,7 @@
       <c r="M22" s="61"/>
       <c r="N22" s="65"/>
       <c r="O22" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P22" s="66"/>
       <c r="Q22" s="67"/>
@@ -4300,9 +4586,9 @@
     </row>
     <row r="23" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="102"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="62"/>
       <c r="G23" s="63"/>
       <c r="H23" s="63"/>
@@ -4313,7 +4599,7 @@
       <c r="M23" s="64"/>
       <c r="N23" s="68"/>
       <c r="O23" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P23" s="69"/>
       <c r="Q23" s="70"/>
@@ -4323,13 +4609,13 @@
       <c r="U23" s="64"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C24" s="94">
+      <c r="C24" s="128">
         <v>42655</v>
       </c>
-      <c r="D24" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="100">
+      <c r="D24" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="122">
         <v>5</v>
       </c>
       <c r="F24" s="60" t="s">
@@ -4342,7 +4628,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J24" s="60" t="s">
         <v>6</v>
@@ -4354,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N24" s="60" t="s">
         <v>6</v>
@@ -4366,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R24" s="60" t="s">
         <v>6</v>
@@ -4378,16 +4664,16 @@
         <v>1</v>
       </c>
       <c r="U24" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C25" s="95"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="101"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="65"/>
       <c r="G25" s="66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H25" s="66"/>
       <c r="I25" s="67">
@@ -4395,7 +4681,7 @@
       </c>
       <c r="J25" s="65"/>
       <c r="K25" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L25" s="66"/>
       <c r="M25" s="67">
@@ -4425,12 +4711,12 @@
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C26" s="95"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="101"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="123"/>
       <c r="F26" s="65"/>
       <c r="G26" s="66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H26" s="66"/>
       <c r="I26" s="67">
@@ -4438,7 +4724,7 @@
       </c>
       <c r="J26" s="65"/>
       <c r="K26" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L26" s="66"/>
       <c r="M26" s="67"/>
@@ -4452,23 +4738,23 @@
       <c r="U26" s="73"/>
     </row>
     <row r="27" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="96"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="116"/>
-      <c r="I27" s="117">
-        <v>0</v>
-      </c>
-      <c r="J27" s="115"/>
-      <c r="K27" s="116" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="116"/>
-      <c r="M27" s="117"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93">
+        <v>0</v>
+      </c>
+      <c r="J27" s="91"/>
+      <c r="K27" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="92"/>
+      <c r="M27" s="93"/>
       <c r="N27" s="89"/>
       <c r="O27" s="77"/>
       <c r="P27" s="77"/>
@@ -4479,13 +4765,13 @@
       <c r="U27" s="90"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C28" s="94">
+      <c r="C28" s="128">
         <v>42662</v>
       </c>
-      <c r="D28" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="100">
+      <c r="D28" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="122">
         <v>5</v>
       </c>
       <c r="F28" s="79" t="s">
@@ -4498,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J28" s="79" t="s">
         <v>6</v>
@@ -4510,7 +4796,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N28" s="79" t="s">
         <v>6</v>
@@ -4522,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R28" s="79" t="s">
         <v>6</v>
@@ -4534,13 +4820,13 @@
         <v>1</v>
       </c>
       <c r="U28" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C29" s="95"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="101"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="123"/>
       <c r="F29" s="60">
         <v>15</v>
       </c>
@@ -4567,7 +4853,7 @@
       </c>
       <c r="N29" s="65"/>
       <c r="O29" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P29" s="66"/>
       <c r="Q29" s="67">
@@ -4585,12 +4871,12 @@
       </c>
     </row>
     <row r="30" spans="2:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="95"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="101"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="123"/>
       <c r="F30" s="60"/>
       <c r="G30" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H30" s="42" t="s">
         <v>35</v>
@@ -4600,7 +4886,7 @@
       </c>
       <c r="J30" s="60"/>
       <c r="K30" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L30" s="42"/>
       <c r="M30" s="61">
@@ -4608,7 +4894,7 @@
       </c>
       <c r="N30" s="65"/>
       <c r="O30" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P30" s="66"/>
       <c r="Q30" s="67"/>
@@ -4626,9 +4912,9 @@
       </c>
     </row>
     <row r="31" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="96"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="102"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="124"/>
       <c r="F31" s="62"/>
       <c r="G31" s="63"/>
       <c r="H31" s="63"/>
@@ -4639,13 +4925,13 @@
       <c r="M31" s="64"/>
       <c r="N31" s="68"/>
       <c r="O31" s="69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P31" s="69"/>
       <c r="Q31" s="70"/>
       <c r="R31" s="62"/>
       <c r="S31" s="63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T31" s="63"/>
       <c r="U31" s="64">
@@ -4654,13 +4940,13 @@
     </row>
     <row r="32" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C33" s="94">
+      <c r="C33" s="128">
         <v>42669</v>
       </c>
-      <c r="D33" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="100">
+      <c r="D33" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="122">
         <v>0</v>
       </c>
       <c r="F33" s="79" t="s">
@@ -4673,7 +4959,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J33" s="79" t="s">
         <v>6</v>
@@ -4685,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="M33" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N33" s="79" t="s">
         <v>6</v>
@@ -4697,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R33" s="79" t="s">
         <v>6</v>
@@ -4709,16 +4995,16 @@
         <v>1</v>
       </c>
       <c r="U33" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C34" s="95"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="101"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="123"/>
       <c r="F34" s="65"/>
       <c r="G34" s="66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H34" s="66"/>
       <c r="I34" s="67">
@@ -4726,7 +5012,7 @@
       </c>
       <c r="J34" s="65"/>
       <c r="K34" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L34" s="66"/>
       <c r="M34" s="67">
@@ -4734,7 +5020,7 @@
       </c>
       <c r="N34" s="65"/>
       <c r="O34" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P34" s="66"/>
       <c r="Q34" s="67">
@@ -4742,7 +5028,7 @@
       </c>
       <c r="R34" s="65"/>
       <c r="S34" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T34" s="66"/>
       <c r="U34" s="67">
@@ -4750,12 +5036,12 @@
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C35" s="95"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="101"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="123"/>
       <c r="F35" s="65"/>
       <c r="G35" s="66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H35" s="66"/>
       <c r="I35" s="67">
@@ -4763,30 +5049,30 @@
       </c>
       <c r="J35" s="65"/>
       <c r="K35" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L35" s="66"/>
       <c r="M35" s="67"/>
       <c r="N35" s="65"/>
       <c r="O35" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P35" s="66"/>
       <c r="Q35" s="67"/>
       <c r="R35" s="65"/>
       <c r="S35" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T35" s="66"/>
       <c r="U35" s="67"/>
     </row>
     <row r="36" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="96"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="102"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="124"/>
       <c r="F36" s="68"/>
       <c r="G36" s="69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H36" s="69"/>
       <c r="I36" s="70">
@@ -4794,19 +5080,19 @@
       </c>
       <c r="J36" s="68"/>
       <c r="K36" s="69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L36" s="69"/>
       <c r="M36" s="70"/>
       <c r="N36" s="68"/>
       <c r="O36" s="69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P36" s="69"/>
       <c r="Q36" s="70"/>
       <c r="R36" s="68"/>
       <c r="S36" s="69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T36" s="69"/>
       <c r="U36" s="70"/>
@@ -4816,39 +5102,39 @@
       <c r="B38" s="81">
         <v>3</v>
       </c>
-      <c r="F38" s="112" t="s">
+      <c r="F38" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="112" t="s">
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="112" t="s">
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="121"/>
+      <c r="N38" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="O38" s="113"/>
-      <c r="P38" s="113"/>
-      <c r="Q38" s="114"/>
-      <c r="R38" s="112" t="s">
+      <c r="O38" s="120"/>
+      <c r="P38" s="120"/>
+      <c r="Q38" s="121"/>
+      <c r="R38" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="S38" s="113"/>
-      <c r="T38" s="113"/>
-      <c r="U38" s="114"/>
+      <c r="S38" s="120"/>
+      <c r="T38" s="120"/>
+      <c r="U38" s="121"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C39" s="103">
+      <c r="C39" s="131">
         <v>42676</v>
       </c>
-      <c r="D39" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="109">
+      <c r="D39" s="134" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="137">
         <v>4</v>
       </c>
       <c r="F39" s="79" t="s">
@@ -4861,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J39" s="79" t="s">
         <v>6</v>
@@ -4873,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N39" s="79" t="s">
         <v>6</v>
@@ -4885,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="Q39" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R39" s="79" t="s">
         <v>6</v>
@@ -4897,16 +5183,16 @@
         <v>1</v>
       </c>
       <c r="U39" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="2:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="C40" s="104"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="110"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="138"/>
       <c r="F40" s="4"/>
       <c r="G40" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H40" s="42"/>
       <c r="I40" s="5">
@@ -4914,7 +5200,7 @@
       </c>
       <c r="J40" s="60"/>
       <c r="K40" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L40" s="42"/>
       <c r="M40" s="61">
@@ -4922,7 +5208,7 @@
       </c>
       <c r="N40" s="71"/>
       <c r="O40" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P40" s="72"/>
       <c r="Q40" s="73">
@@ -4930,7 +5216,7 @@
       </c>
       <c r="R40" s="60"/>
       <c r="S40" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T40" s="42"/>
       <c r="U40" s="61">
@@ -4938,9 +5224,9 @@
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C41" s="104"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="110"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="138"/>
       <c r="F41" s="60">
         <v>14</v>
       </c>
@@ -4967,7 +5253,7 @@
         <v>11</v>
       </c>
       <c r="O41" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P41" s="72"/>
       <c r="Q41" s="73">
@@ -4986,9 +5272,9 @@
     </row>
     <row r="42" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="111"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="139"/>
       <c r="F42" s="62"/>
       <c r="G42" s="63"/>
       <c r="H42" s="63"/>
@@ -5008,13 +5294,13 @@
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
-      <c r="C43" s="103">
+      <c r="C43" s="131">
         <v>42683</v>
       </c>
-      <c r="D43" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="109">
+      <c r="D43" s="134" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="137">
         <v>4</v>
       </c>
       <c r="F43" s="60" t="s">
@@ -5027,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J43" s="60" t="s">
         <v>6</v>
@@ -5039,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N43" s="60" t="s">
         <v>6</v>
@@ -5051,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="Q43" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R43" s="60" t="s">
         <v>6</v>
@@ -5063,19 +5349,19 @@
         <v>1</v>
       </c>
       <c r="U43" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="110"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="138"/>
       <c r="F44" s="71">
         <v>11</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H44" s="72"/>
       <c r="I44" s="73">
@@ -5091,21 +5377,23 @@
       <c r="M44" s="73">
         <v>3</v>
       </c>
-      <c r="N44" s="125">
+      <c r="N44" s="101">
         <v>11</v>
       </c>
       <c r="O44" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="P44" s="126" t="s">
+        <v>77</v>
+      </c>
+      <c r="P44" s="102" t="s">
         <v>35</v>
       </c>
       <c r="Q44" s="73">
         <v>3</v>
       </c>
-      <c r="R44" s="71"/>
+      <c r="R44" s="71">
+        <v>20</v>
+      </c>
       <c r="S44" s="72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T44" s="72"/>
       <c r="U44" s="73">
@@ -5113,9 +5401,9 @@
       </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C45" s="104"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="110"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="138"/>
       <c r="F45" s="71">
         <v>14</v>
       </c>
@@ -5141,12 +5429,12 @@
     </row>
     <row r="46" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="110"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="138"/>
       <c r="F46" s="89"/>
       <c r="G46" s="77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H46" s="77"/>
       <c r="I46" s="90">
@@ -5154,7 +5442,7 @@
       </c>
       <c r="J46" s="89"/>
       <c r="K46" s="77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L46" s="77"/>
       <c r="M46" s="90">
@@ -5162,7 +5450,7 @@
       </c>
       <c r="N46" s="89"/>
       <c r="O46" s="77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P46" s="77"/>
       <c r="Q46" s="90">
@@ -5170,7 +5458,7 @@
       </c>
       <c r="R46" s="89"/>
       <c r="S46" s="77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T46" s="77"/>
       <c r="U46" s="90">
@@ -5178,26 +5466,26 @@
       </c>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C47" s="94">
+      <c r="C47" s="128">
         <v>42690</v>
       </c>
-      <c r="D47" s="97" t="s">
+      <c r="D47" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="122">
+        <v>5</v>
+      </c>
+      <c r="F47" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="97" t="s">
         <v>61</v>
-      </c>
-      <c r="E47" s="100">
-        <v>5</v>
-      </c>
-      <c r="F47" s="118" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="I47" s="121" t="s">
-        <v>62</v>
       </c>
       <c r="J47" s="79" t="s">
         <v>6</v>
@@ -5209,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="M47" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N47" s="79" t="s">
         <v>6</v>
@@ -5221,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="Q47" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R47" s="79" t="s">
         <v>6</v>
@@ -5233,24 +5521,24 @@
         <v>1</v>
       </c>
       <c r="U47" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C48" s="95"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="119"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="95"/>
       <c r="G48" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H48" s="66"/>
-      <c r="I48" s="122">
+      <c r="I48" s="98">
         <v>5</v>
       </c>
       <c r="J48" s="60"/>
       <c r="K48" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L48" s="42"/>
       <c r="M48" s="61">
@@ -5258,7 +5546,7 @@
       </c>
       <c r="N48" s="60"/>
       <c r="O48" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P48" s="42"/>
       <c r="Q48" s="61">
@@ -5266,7 +5554,7 @@
       </c>
       <c r="R48" s="60"/>
       <c r="S48" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T48" s="42"/>
       <c r="U48" s="61">
@@ -5274,15 +5562,15 @@
       </c>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C49" s="95"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="119"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="95"/>
       <c r="G49" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H49" s="66"/>
-      <c r="I49" s="122"/>
+      <c r="I49" s="98"/>
       <c r="J49" s="60">
         <v>8</v>
       </c>
@@ -5293,19 +5581,21 @@
       <c r="M49" s="61">
         <v>1</v>
       </c>
-      <c r="N49" s="127">
+      <c r="N49" s="103">
         <v>11</v>
       </c>
       <c r="O49" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P49" s="42"/>
       <c r="Q49" s="61">
         <v>4</v>
       </c>
-      <c r="R49" s="71"/>
+      <c r="R49" s="71">
+        <v>20</v>
+      </c>
       <c r="S49" s="72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T49" s="72"/>
       <c r="U49" s="73">
@@ -5313,18 +5603,18 @@
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C50" s="95"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="119"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="126"/>
+      <c r="E50" s="123"/>
+      <c r="F50" s="95"/>
       <c r="G50" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H50" s="66"/>
-      <c r="I50" s="122"/>
+      <c r="I50" s="98"/>
       <c r="J50" s="60"/>
       <c r="K50" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L50" s="42"/>
       <c r="M50" s="61">
@@ -5346,13 +5636,13 @@
       </c>
     </row>
     <row r="51" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="96"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="120"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="96"/>
       <c r="G51" s="69"/>
       <c r="H51" s="69"/>
-      <c r="I51" s="123"/>
+      <c r="I51" s="99"/>
       <c r="J51" s="62"/>
       <c r="K51" s="69"/>
       <c r="L51" s="63"/>
@@ -5361,11 +5651,11 @@
       <c r="O51" s="63"/>
       <c r="P51" s="63"/>
       <c r="Q51" s="64"/>
-      <c r="R51" s="124">
+      <c r="R51" s="100">
         <v>11</v>
       </c>
       <c r="S51" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T51" s="63"/>
       <c r="U51" s="64">
@@ -5377,40 +5667,40 @@
       <c r="B54" s="81">
         <v>4</v>
       </c>
-      <c r="F54" s="112" t="s">
+      <c r="F54" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="G54" s="113"/>
-      <c r="H54" s="113"/>
-      <c r="I54" s="114"/>
-      <c r="J54" s="112" t="s">
+      <c r="G54" s="120"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="K54" s="113"/>
-      <c r="L54" s="113"/>
-      <c r="M54" s="114"/>
-      <c r="N54" s="112" t="s">
+      <c r="K54" s="120"/>
+      <c r="L54" s="120"/>
+      <c r="M54" s="121"/>
+      <c r="N54" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="O54" s="113"/>
-      <c r="P54" s="113"/>
-      <c r="Q54" s="114"/>
-      <c r="R54" s="112" t="s">
+      <c r="O54" s="120"/>
+      <c r="P54" s="120"/>
+      <c r="Q54" s="121"/>
+      <c r="R54" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="S54" s="113"/>
-      <c r="T54" s="113"/>
-      <c r="U54" s="114"/>
+      <c r="S54" s="120"/>
+      <c r="T54" s="120"/>
+      <c r="U54" s="121"/>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C55" s="103">
+      <c r="C55" s="131">
         <v>42697</v>
       </c>
-      <c r="D55" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55" s="109">
-        <v>4</v>
+      <c r="D55" s="134" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="137">
+        <v>5</v>
       </c>
       <c r="F55" s="79" t="s">
         <v>6</v>
@@ -5422,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J55" s="79" t="s">
         <v>6</v>
@@ -5434,7 +5724,7 @@
         <v>1</v>
       </c>
       <c r="M55" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N55" s="79" t="s">
         <v>6</v>
@@ -5446,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="Q55" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R55" s="79" t="s">
         <v>6</v>
@@ -5458,28 +5748,28 @@
         <v>1</v>
       </c>
       <c r="U55" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C56" s="104"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="137">
+      <c r="C56" s="132"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="138"/>
+      <c r="F56" s="113">
         <v>7</v>
       </c>
-      <c r="G56" s="136" t="s">
+      <c r="G56" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="138"/>
-      <c r="I56" s="139">
+      <c r="H56" s="114"/>
+      <c r="I56" s="115">
         <v>5</v>
       </c>
       <c r="J56" s="15">
         <v>17</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L56" s="72"/>
       <c r="M56" s="73">
@@ -5507,11 +5797,11 @@
       </c>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C57" s="104"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="110"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="138"/>
       <c r="F57" s="71"/>
-      <c r="G57" s="135"/>
+      <c r="G57" s="111"/>
       <c r="H57" s="72"/>
       <c r="I57" s="73"/>
       <c r="J57" s="71"/>
@@ -5519,7 +5809,7 @@
       <c r="L57" s="72"/>
       <c r="M57" s="73"/>
       <c r="N57" s="71"/>
-      <c r="O57" s="135"/>
+      <c r="O57" s="111"/>
       <c r="P57" s="72"/>
       <c r="Q57" s="73"/>
       <c r="R57" s="71"/>
@@ -5527,9 +5817,9 @@
       <c r="U57" s="73"/>
     </row>
     <row r="58" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="105"/>
-      <c r="D58" s="108"/>
-      <c r="E58" s="111"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="136"/>
+      <c r="E58" s="139"/>
       <c r="F58" s="74"/>
       <c r="G58" s="75"/>
       <c r="H58" s="75"/>
@@ -5547,22 +5837,182 @@
       <c r="T58" s="75"/>
       <c r="U58" s="76"/>
     </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C59" s="131">
+        <v>42704</v>
+      </c>
+      <c r="D59" s="134" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="137">
+        <v>5</v>
+      </c>
+      <c r="F59" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="J59" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="L59" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="M59" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="N59" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="O59" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="P59" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="R59" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="S59" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="T59" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="U59" s="80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C60" s="132"/>
+      <c r="D60" s="135"/>
+      <c r="E60" s="138"/>
+      <c r="F60" s="113">
+        <v>7</v>
+      </c>
+      <c r="G60" s="112" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="114"/>
+      <c r="I60" s="115">
+        <v>5</v>
+      </c>
+      <c r="J60" s="15">
+        <v>17</v>
+      </c>
+      <c r="K60" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L60" s="114"/>
+      <c r="M60" s="115">
+        <v>5</v>
+      </c>
+      <c r="N60" s="113">
+        <v>9</v>
+      </c>
+      <c r="O60" s="112" t="s">
+        <v>15</v>
+      </c>
+      <c r="P60" s="114"/>
+      <c r="Q60" s="115">
+        <v>5</v>
+      </c>
+      <c r="R60" s="113">
+        <v>9</v>
+      </c>
+      <c r="S60" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T60" s="114"/>
+      <c r="U60" s="115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C61" s="132"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="138"/>
+      <c r="F61" s="113"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="114"/>
+      <c r="I61" s="115"/>
+      <c r="J61" s="113"/>
+      <c r="K61" s="114"/>
+      <c r="L61" s="114"/>
+      <c r="M61" s="115"/>
+      <c r="N61" s="113"/>
+      <c r="O61" s="111"/>
+      <c r="P61" s="114"/>
+      <c r="Q61" s="115"/>
+      <c r="R61" s="113"/>
+      <c r="S61" s="104"/>
+      <c r="T61" s="114"/>
+      <c r="U61" s="115"/>
+    </row>
+    <row r="62" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="133"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="74"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="75"/>
+      <c r="M62" s="76"/>
+      <c r="N62" s="74"/>
+      <c r="O62" s="75"/>
+      <c r="P62" s="75"/>
+      <c r="Q62" s="76"/>
+      <c r="R62" s="74"/>
+      <c r="S62" s="75"/>
+      <c r="T62" s="75"/>
+      <c r="U62" s="76"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="R54:U54"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="R38:U38"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="J54:M54"/>
+  <mergeCells count="52">
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="F5:I5"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
@@ -5573,31 +6023,20 @@
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="R54:U54"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="J54:M54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc_SCRUM/LesSprints.xlsx
+++ b/Doc_SCRUM/LesSprints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="-240" windowWidth="25215" windowHeight="8325" activeTab="4"/>
+    <workbookView xWindow="-180" yWindow="-240" windowWidth="25215" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Tout" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="95">
   <si>
     <t xml:space="preserve">Story Name </t>
   </si>
@@ -1120,42 +1120,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1182,6 +1146,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1486,9 +1486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F24" sqref="F24"/>
+      <selection pane="topRight" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,7 +1785,9 @@
       <c r="E7" s="105">
         <v>1</v>
       </c>
-      <c r="F7" s="105"/>
+      <c r="F7" s="105">
+        <v>15</v>
+      </c>
       <c r="G7" s="42"/>
       <c r="H7" s="66" t="s">
         <v>29</v>
@@ -1845,9 +1847,7 @@
       <c r="R8" s="47">
         <v>5</v>
       </c>
-      <c r="S8" s="112">
-        <v>5</v>
-      </c>
+      <c r="S8" s="112"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="105">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="C30" s="5">
         <f>SUM(F2:F14)</f>
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>29</v>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="G44" s="104">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -3261,7 +3261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3442,10 +3442,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F43"/>
+  <dimension ref="C2:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3843,7 +3843,7 @@
         <v>80</v>
       </c>
       <c r="E40" s="105" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F40" s="86"/>
     </row>
@@ -3886,6 +3886,75 @@
       <c r="F43" s="86" t="s">
         <v>94</v>
       </c>
+    </row>
+    <row r="44" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="83">
+        <v>42718</v>
+      </c>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="80"/>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="60"/>
+      <c r="D46" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="86"/>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="86"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="86"/>
+    </row>
+    <row r="50" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3894,10 +3963,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U62"/>
+  <dimension ref="B3:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V54" sqref="V54"/>
+    <sheetView topLeftCell="C25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3940,40 +4009,40 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="119" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="119" t="s">
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="119" t="s">
+      <c r="O5" s="138"/>
+      <c r="P5" s="138"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="121"/>
+      <c r="S5" s="138"/>
+      <c r="T5" s="138"/>
+      <c r="U5" s="139"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="128">
         <v>42627</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="122">
+      <c r="E6" s="134">
         <v>5</v>
       </c>
       <c r="F6" s="60" t="s">
@@ -4028,8 +4097,8 @@
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="129"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="123"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="60">
         <v>2</v>
       </c>
@@ -4080,8 +4149,8 @@
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="129"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="123"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="135"/>
       <c r="F8" s="60">
         <v>3</v>
       </c>
@@ -4110,8 +4179,8 @@
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="130"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="124"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="136"/>
       <c r="F9" s="62"/>
       <c r="G9" s="63"/>
       <c r="H9" s="63"/>
@@ -4133,10 +4202,10 @@
       <c r="C10" s="128">
         <v>42634</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="122">
+      <c r="E10" s="134">
         <v>0</v>
       </c>
       <c r="F10" s="60" t="s">
@@ -4190,8 +4259,8 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C11" s="129"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="135"/>
       <c r="F11" s="65"/>
       <c r="G11" s="66"/>
       <c r="H11" s="66"/>
@@ -4211,8 +4280,8 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C12" s="129"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="135"/>
       <c r="F12" s="65"/>
       <c r="G12" s="66"/>
       <c r="H12" s="66"/>
@@ -4232,8 +4301,8 @@
     </row>
     <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="130"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="124"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="68"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
@@ -4255,10 +4324,10 @@
       <c r="C14" s="128">
         <v>42641</v>
       </c>
-      <c r="D14" s="125" t="s">
+      <c r="D14" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="122">
+      <c r="E14" s="134">
         <v>5</v>
       </c>
       <c r="F14" s="60" t="s">
@@ -4312,8 +4381,8 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C15" s="129"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="123"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="135"/>
       <c r="F15" s="60">
         <v>3</v>
       </c>
@@ -4363,8 +4432,8 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C16" s="129"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="123"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="135"/>
       <c r="F16" s="60"/>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
@@ -4392,8 +4461,8 @@
     </row>
     <row r="17" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="130"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="124"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="62"/>
       <c r="G17" s="63"/>
       <c r="H17" s="63"/>
@@ -4419,40 +4488,40 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="119" t="s">
+      <c r="F19" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="119" t="s">
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="119" t="s">
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="121"/>
-      <c r="R19" s="119" t="s">
+      <c r="O19" s="138"/>
+      <c r="P19" s="138"/>
+      <c r="Q19" s="139"/>
+      <c r="R19" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="121"/>
+      <c r="S19" s="138"/>
+      <c r="T19" s="138"/>
+      <c r="U19" s="139"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="128">
         <v>42648</v>
       </c>
-      <c r="D20" s="125" t="s">
+      <c r="D20" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="122">
+      <c r="E20" s="134">
         <v>5</v>
       </c>
       <c r="F20" s="60" t="s">
@@ -4507,8 +4576,8 @@
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="129"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="123"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="135"/>
       <c r="F21" s="60">
         <v>15</v>
       </c>
@@ -4555,8 +4624,8 @@
     <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="129"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="123"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="135"/>
       <c r="F22" s="60"/>
       <c r="G22" s="42"/>
       <c r="H22" s="42"/>
@@ -4587,8 +4656,8 @@
     <row r="23" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="130"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="124"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="136"/>
       <c r="F23" s="62"/>
       <c r="G23" s="63"/>
       <c r="H23" s="63"/>
@@ -4612,10 +4681,10 @@
       <c r="C24" s="128">
         <v>42655</v>
       </c>
-      <c r="D24" s="125" t="s">
+      <c r="D24" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="122">
+      <c r="E24" s="134">
         <v>5</v>
       </c>
       <c r="F24" s="60" t="s">
@@ -4669,8 +4738,8 @@
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C25" s="129"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="123"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="135"/>
       <c r="F25" s="65"/>
       <c r="G25" s="66" t="s">
         <v>62</v>
@@ -4712,8 +4781,8 @@
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C26" s="129"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="123"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="135"/>
       <c r="F26" s="65"/>
       <c r="G26" s="66" t="s">
         <v>62</v>
@@ -4739,8 +4808,8 @@
     </row>
     <row r="27" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="130"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="124"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="136"/>
       <c r="F27" s="91"/>
       <c r="G27" s="92" t="s">
         <v>62</v>
@@ -4768,10 +4837,10 @@
       <c r="C28" s="128">
         <v>42662</v>
       </c>
-      <c r="D28" s="125" t="s">
+      <c r="D28" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="122">
+      <c r="E28" s="134">
         <v>5</v>
       </c>
       <c r="F28" s="79" t="s">
@@ -4825,8 +4894,8 @@
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C29" s="129"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="123"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="135"/>
       <c r="F29" s="60">
         <v>15</v>
       </c>
@@ -4872,8 +4941,8 @@
     </row>
     <row r="30" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="C30" s="129"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="123"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="135"/>
       <c r="F30" s="60"/>
       <c r="G30" s="58" t="s">
         <v>72</v>
@@ -4913,8 +4982,8 @@
     </row>
     <row r="31" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="130"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="124"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="136"/>
       <c r="F31" s="62"/>
       <c r="G31" s="63"/>
       <c r="H31" s="63"/>
@@ -4943,10 +5012,10 @@
       <c r="C33" s="128">
         <v>42669</v>
       </c>
-      <c r="D33" s="125" t="s">
+      <c r="D33" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="122">
+      <c r="E33" s="134">
         <v>0</v>
       </c>
       <c r="F33" s="79" t="s">
@@ -5000,8 +5069,8 @@
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C34" s="129"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="123"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="135"/>
       <c r="F34" s="65"/>
       <c r="G34" s="66" t="s">
         <v>62</v>
@@ -5037,8 +5106,8 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C35" s="129"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="123"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="135"/>
       <c r="F35" s="65"/>
       <c r="G35" s="66" t="s">
         <v>62</v>
@@ -5068,8 +5137,8 @@
     </row>
     <row r="36" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="130"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="124"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="68"/>
       <c r="G36" s="69" t="s">
         <v>62</v>
@@ -5102,39 +5171,39 @@
       <c r="B38" s="81">
         <v>3</v>
       </c>
-      <c r="F38" s="119" t="s">
+      <c r="F38" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="119" t="s">
+      <c r="G38" s="138"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="K38" s="120"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="121"/>
-      <c r="N38" s="119" t="s">
+      <c r="K38" s="138"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="139"/>
+      <c r="N38" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="O38" s="120"/>
-      <c r="P38" s="120"/>
-      <c r="Q38" s="121"/>
-      <c r="R38" s="119" t="s">
+      <c r="O38" s="138"/>
+      <c r="P38" s="138"/>
+      <c r="Q38" s="139"/>
+      <c r="R38" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="S38" s="120"/>
-      <c r="T38" s="120"/>
-      <c r="U38" s="121"/>
+      <c r="S38" s="138"/>
+      <c r="T38" s="138"/>
+      <c r="U38" s="139"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C39" s="131">
+      <c r="C39" s="119">
         <v>42676</v>
       </c>
-      <c r="D39" s="134" t="s">
+      <c r="D39" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="137">
+      <c r="E39" s="125">
         <v>4</v>
       </c>
       <c r="F39" s="79" t="s">
@@ -5187,9 +5256,9 @@
       </c>
     </row>
     <row r="40" spans="2:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="C40" s="132"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="138"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="126"/>
       <c r="F40" s="4"/>
       <c r="G40" s="58" t="s">
         <v>72</v>
@@ -5224,9 +5293,9 @@
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C41" s="132"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="138"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="126"/>
       <c r="F41" s="60">
         <v>14</v>
       </c>
@@ -5272,9 +5341,9 @@
     </row>
     <row r="42" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="139"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="127"/>
       <c r="F42" s="62"/>
       <c r="G42" s="63"/>
       <c r="H42" s="63"/>
@@ -5294,13 +5363,13 @@
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
-      <c r="C43" s="131">
+      <c r="C43" s="119">
         <v>42683</v>
       </c>
-      <c r="D43" s="134" t="s">
+      <c r="D43" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="137">
+      <c r="E43" s="125">
         <v>4</v>
       </c>
       <c r="F43" s="60" t="s">
@@ -5354,9 +5423,9 @@
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
-      <c r="C44" s="132"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="138"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="126"/>
       <c r="F44" s="71">
         <v>11</v>
       </c>
@@ -5401,9 +5470,9 @@
       </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C45" s="132"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="138"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="126"/>
       <c r="F45" s="71">
         <v>14</v>
       </c>
@@ -5429,9 +5498,9 @@
     </row>
     <row r="46" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5"/>
-      <c r="C46" s="132"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="138"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="126"/>
       <c r="F46" s="89"/>
       <c r="G46" s="77" t="s">
         <v>73</v>
@@ -5469,10 +5538,10 @@
       <c r="C47" s="128">
         <v>42690</v>
       </c>
-      <c r="D47" s="125" t="s">
+      <c r="D47" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="122">
+      <c r="E47" s="134">
         <v>5</v>
       </c>
       <c r="F47" s="94" t="s">
@@ -5526,8 +5595,8 @@
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C48" s="129"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="123"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="135"/>
       <c r="F48" s="95"/>
       <c r="G48" s="66" t="s">
         <v>65</v>
@@ -5563,8 +5632,8 @@
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C49" s="129"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="123"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="135"/>
       <c r="F49" s="95"/>
       <c r="G49" s="66" t="s">
         <v>65</v>
@@ -5604,8 +5673,8 @@
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C50" s="129"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="123"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="135"/>
       <c r="F50" s="95"/>
       <c r="G50" s="66" t="s">
         <v>65</v>
@@ -5637,8 +5706,8 @@
     </row>
     <row r="51" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="130"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="124"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="96"/>
       <c r="G51" s="69"/>
       <c r="H51" s="69"/>
@@ -5667,39 +5736,39 @@
       <c r="B54" s="81">
         <v>4</v>
       </c>
-      <c r="F54" s="119" t="s">
+      <c r="F54" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="G54" s="120"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="121"/>
-      <c r="J54" s="119" t="s">
+      <c r="G54" s="138"/>
+      <c r="H54" s="138"/>
+      <c r="I54" s="139"/>
+      <c r="J54" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="K54" s="120"/>
-      <c r="L54" s="120"/>
-      <c r="M54" s="121"/>
-      <c r="N54" s="119" t="s">
+      <c r="K54" s="138"/>
+      <c r="L54" s="138"/>
+      <c r="M54" s="139"/>
+      <c r="N54" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="O54" s="120"/>
-      <c r="P54" s="120"/>
-      <c r="Q54" s="121"/>
-      <c r="R54" s="119" t="s">
+      <c r="O54" s="138"/>
+      <c r="P54" s="138"/>
+      <c r="Q54" s="139"/>
+      <c r="R54" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="S54" s="120"/>
-      <c r="T54" s="120"/>
-      <c r="U54" s="121"/>
+      <c r="S54" s="138"/>
+      <c r="T54" s="138"/>
+      <c r="U54" s="139"/>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C55" s="131">
+      <c r="C55" s="119">
         <v>42697</v>
       </c>
-      <c r="D55" s="134" t="s">
+      <c r="D55" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="137">
+      <c r="E55" s="125">
         <v>5</v>
       </c>
       <c r="F55" s="79" t="s">
@@ -5752,9 +5821,9 @@
       </c>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C56" s="132"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="138"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="126"/>
       <c r="F56" s="113">
         <v>7</v>
       </c>
@@ -5797,9 +5866,9 @@
       </c>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C57" s="132"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="138"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="126"/>
       <c r="F57" s="71"/>
       <c r="G57" s="111"/>
       <c r="H57" s="72"/>
@@ -5817,9 +5886,9 @@
       <c r="U57" s="73"/>
     </row>
     <row r="58" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="133"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="139"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="124"/>
+      <c r="E58" s="127"/>
       <c r="F58" s="74"/>
       <c r="G58" s="75"/>
       <c r="H58" s="75"/>
@@ -5838,13 +5907,13 @@
       <c r="U58" s="76"/>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C59" s="131">
+      <c r="C59" s="119">
         <v>42704</v>
       </c>
-      <c r="D59" s="134" t="s">
+      <c r="D59" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="137">
+      <c r="E59" s="125">
         <v>5</v>
       </c>
       <c r="F59" s="79" t="s">
@@ -5897,9 +5966,9 @@
       </c>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C60" s="132"/>
-      <c r="D60" s="135"/>
-      <c r="E60" s="138"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="123"/>
+      <c r="E60" s="126"/>
       <c r="F60" s="113">
         <v>7</v>
       </c>
@@ -5942,9 +6011,9 @@
       </c>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C61" s="132"/>
-      <c r="D61" s="135"/>
-      <c r="E61" s="138"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="126"/>
       <c r="F61" s="113"/>
       <c r="G61" s="111"/>
       <c r="H61" s="114"/>
@@ -5963,9 +6032,9 @@
       <c r="U61" s="115"/>
     </row>
     <row r="62" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="133"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="139"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="127"/>
       <c r="F62" s="74"/>
       <c r="G62" s="75"/>
       <c r="H62" s="75"/>
@@ -5983,36 +6052,172 @@
       <c r="T62" s="75"/>
       <c r="U62" s="76"/>
     </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C63" s="119">
+        <v>42711</v>
+      </c>
+      <c r="D63" s="122" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="125">
+        <v>5</v>
+      </c>
+      <c r="F63" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="J63" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="K63" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="L63" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="M63" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="N63" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="O63" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="P63" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="R63" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="S63" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="T63" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="U63" s="80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C64" s="120"/>
+      <c r="D64" s="123"/>
+      <c r="E64" s="126"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" s="107"/>
+      <c r="I64" s="67">
+        <v>5</v>
+      </c>
+      <c r="J64" s="15">
+        <v>17</v>
+      </c>
+      <c r="K64" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L64" s="114"/>
+      <c r="M64" s="115">
+        <v>5</v>
+      </c>
+      <c r="N64" s="113">
+        <v>9</v>
+      </c>
+      <c r="O64" s="112" t="s">
+        <v>15</v>
+      </c>
+      <c r="P64" s="114"/>
+      <c r="Q64" s="115">
+        <v>5</v>
+      </c>
+      <c r="R64" s="113">
+        <v>9</v>
+      </c>
+      <c r="S64" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T64" s="114"/>
+      <c r="U64" s="115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C65" s="120"/>
+      <c r="D65" s="123"/>
+      <c r="E65" s="126"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" s="107"/>
+      <c r="I65" s="67">
+        <v>0</v>
+      </c>
+      <c r="J65" s="113"/>
+      <c r="K65" s="114"/>
+      <c r="L65" s="114"/>
+      <c r="M65" s="115"/>
+      <c r="N65" s="113"/>
+      <c r="O65" s="111"/>
+      <c r="P65" s="114"/>
+      <c r="Q65" s="115"/>
+      <c r="R65" s="113"/>
+      <c r="S65" s="104"/>
+      <c r="T65" s="114"/>
+      <c r="U65" s="115"/>
+    </row>
+    <row r="66" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="121"/>
+      <c r="D66" s="124"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="69"/>
+      <c r="I66" s="70">
+        <v>0</v>
+      </c>
+      <c r="J66" s="74"/>
+      <c r="K66" s="75"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="76"/>
+      <c r="N66" s="74"/>
+      <c r="O66" s="75"/>
+      <c r="P66" s="75"/>
+      <c r="Q66" s="76"/>
+      <c r="R66" s="74"/>
+      <c r="S66" s="75"/>
+      <c r="T66" s="75"/>
+      <c r="U66" s="76"/>
+    </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="F5:I5"/>
+  <mergeCells count="55">
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="R54:U54"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="J54:M54"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
@@ -6023,20 +6228,39 @@
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="C43:C46"/>
     <mergeCell ref="D47:D51"/>
     <mergeCell ref="C47:C51"/>
     <mergeCell ref="C55:C58"/>
     <mergeCell ref="D55:D58"/>
     <mergeCell ref="E55:E58"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="R54:U54"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="R38:U38"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="J54:M54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
